--- a/metrics/plantilla.xlsx
+++ b/metrics/plantilla.xlsx
@@ -2138,151 +2138,151 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="131">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="139">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="132">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="133">
+                <c:pt idx="140">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="148">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="134">
+                <c:pt idx="149">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="135">
+                <c:pt idx="150">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="159">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="136">
+                <c:pt idx="160">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="137">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="139">
+                <c:pt idx="161">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="163">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="140">
+                <c:pt idx="164">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="173">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="141">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="146">
+                <c:pt idx="174">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="147">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="158">
+                <c:pt idx="175">
                   <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="176">
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>12</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>8</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>7</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="180">
                   <c:v>5</c:v>
@@ -2291,502 +2291,502 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>15</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="183">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="191">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="184">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="185">
+                <c:pt idx="192">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="201">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="186">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="195">
+                <c:pt idx="202">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>339</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>378</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>422</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>607</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>642</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>740</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>835</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>968</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>1092</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>1294</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>1605</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>2066</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>2676</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>3420</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>4529</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>6245</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>8254</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>10912</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>13787</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>16780</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>19058</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>20225</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>20578</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>20282</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>18527</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>16437</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>13331</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>10511</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>8065</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>6136</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>4671</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>3514</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>2853</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>2103</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>1707</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>1421</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>1173</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>998</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>878</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>756</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>670</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>553</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>544</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>476</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>417</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>373</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>299</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="309">
                   <c:v>23</c:v>
                 </c:pt>
-                <c:pt idx="196">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="197">
+                <c:pt idx="310">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="313">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="198">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>122</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>147</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>139</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>167</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>193</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>211</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>206</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>257</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>272</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>280</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>290</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>326</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>346</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>343</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>406</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>488</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>533</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>568</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>628</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>691</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>720</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>867</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>989</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>1103</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>1258</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>1517</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>1765</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>2143</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>2582</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>3311</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>4368</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>5801</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>7848</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>10494</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>13937</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>17735</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>21354</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>23563</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>23945</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>22105</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>18194</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>14110</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>10463</c:v>
-                </c:pt>
-                <c:pt idx="261">
-                  <c:v>7711</c:v>
-                </c:pt>
-                <c:pt idx="262">
-                  <c:v>5899</c:v>
-                </c:pt>
-                <c:pt idx="263">
-                  <c:v>4513</c:v>
-                </c:pt>
-                <c:pt idx="264">
-                  <c:v>3611</c:v>
-                </c:pt>
-                <c:pt idx="265">
-                  <c:v>2785</c:v>
-                </c:pt>
-                <c:pt idx="266">
-                  <c:v>2303</c:v>
-                </c:pt>
-                <c:pt idx="267">
-                  <c:v>1868</c:v>
-                </c:pt>
-                <c:pt idx="268">
-                  <c:v>1608</c:v>
-                </c:pt>
-                <c:pt idx="269">
-                  <c:v>1399</c:v>
-                </c:pt>
-                <c:pt idx="270">
-                  <c:v>1266</c:v>
-                </c:pt>
-                <c:pt idx="271">
-                  <c:v>1036</c:v>
-                </c:pt>
-                <c:pt idx="272">
-                  <c:v>845</c:v>
-                </c:pt>
-                <c:pt idx="273">
-                  <c:v>760</c:v>
-                </c:pt>
-                <c:pt idx="274">
-                  <c:v>665</c:v>
-                </c:pt>
-                <c:pt idx="275">
-                  <c:v>623</c:v>
-                </c:pt>
-                <c:pt idx="276">
-                  <c:v>553</c:v>
-                </c:pt>
-                <c:pt idx="277">
-                  <c:v>499</c:v>
-                </c:pt>
-                <c:pt idx="278">
-                  <c:v>484</c:v>
-                </c:pt>
-                <c:pt idx="279">
-                  <c:v>441</c:v>
-                </c:pt>
-                <c:pt idx="280">
-                  <c:v>374</c:v>
-                </c:pt>
-                <c:pt idx="281">
-                  <c:v>313</c:v>
-                </c:pt>
-                <c:pt idx="282">
-                  <c:v>315</c:v>
-                </c:pt>
-                <c:pt idx="283">
-                  <c:v>329</c:v>
-                </c:pt>
-                <c:pt idx="284">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="285">
-                  <c:v>230</c:v>
-                </c:pt>
-                <c:pt idx="286">
-                  <c:v>230</c:v>
-                </c:pt>
-                <c:pt idx="287">
-                  <c:v>201</c:v>
-                </c:pt>
-                <c:pt idx="288">
-                  <c:v>217</c:v>
-                </c:pt>
-                <c:pt idx="289">
-                  <c:v>175</c:v>
-                </c:pt>
-                <c:pt idx="290">
-                  <c:v>151</c:v>
-                </c:pt>
-                <c:pt idx="291">
-                  <c:v>148</c:v>
-                </c:pt>
-                <c:pt idx="292">
-                  <c:v>149</c:v>
-                </c:pt>
-                <c:pt idx="293">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="294">
-                  <c:v>119</c:v>
-                </c:pt>
-                <c:pt idx="295">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="296">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="297">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="298">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="299">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="300">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="301">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="302">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="303">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="304">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="305">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="306">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="307">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="308">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="309">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="310">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="311">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="312">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="313">
-                  <c:v>32</c:v>
-                </c:pt>
                 <c:pt idx="314">
-                  <c:v>20</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="315">
-                  <c:v>23</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="316">
-                  <c:v>24</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="317">
-                  <c:v>17</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="318">
-                  <c:v>13</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="319">
-                  <c:v>19</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="320">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="321">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="321">
-                  <c:v>15</c:v>
-                </c:pt>
                 <c:pt idx="322">
-                  <c:v>11</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="323">
-                  <c:v>16</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="324">
-                  <c:v>15</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="325">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="326">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="326">
-                  <c:v>13</c:v>
-                </c:pt>
                 <c:pt idx="327">
-                  <c:v>6</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="328">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="329">
-                  <c:v>8</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="330">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="331">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="332">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="333">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="333">
-                  <c:v>8</c:v>
-                </c:pt>
                 <c:pt idx="334">
-                  <c:v>6</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="335">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="336">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="337">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="338">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="339">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="340">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="341">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="347">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="342">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="343">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="344">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="345">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="346">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="347">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="348">
                   <c:v>0</c:v>
@@ -2813,7 +2813,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="356">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="357">
                   <c:v>0</c:v>
@@ -3288,11 +3288,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-817682112"/>
-        <c:axId val="-817685376"/>
+        <c:axId val="-1061028032"/>
+        <c:axId val="-1061022592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-817682112"/>
+        <c:axId val="-1061028032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3335,7 +3335,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-817685376"/>
+        <c:crossAx val="-1061022592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3343,7 +3343,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-817685376"/>
+        <c:axId val="-1061022592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3394,7 +3394,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-817682112"/>
+        <c:crossAx val="-1061028032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3534,69 +3534,73 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
-              <c:f>Hoja1!$A$513:$A$521</c:f>
-              <c:strCache>
+            <c:numRef>
+              <c:f>Hoja1!$A$514:$A$522</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>STEPS </c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$B$513:$B$521</c:f>
+              <c:f>Hoja1!$B$514:$B$522</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>164</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>193</c:v>
+                  <c:v>886</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2981</c:v>
+                  <c:v>5254</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9961</c:v>
+                  <c:v>43489</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>36774</c:v>
+                  <c:v>162584</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>147636</c:v>
+                  <c:v>43524</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>51037</c:v>
+                  <c:v>5473</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11444</c:v>
+                  <c:v>740</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2074</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3612,11 +3616,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-817683744"/>
-        <c:axId val="-817677760"/>
+        <c:axId val="-1061022048"/>
+        <c:axId val="-1061021504"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-817683744"/>
+        <c:axId val="-1061022048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3659,7 +3663,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-817677760"/>
+        <c:crossAx val="-1061021504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3667,7 +3671,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-817677760"/>
+        <c:axId val="-1061021504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3718,7 +3722,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-817683744"/>
+        <c:crossAx val="-1061022048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3858,69 +3862,73 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
-              <c:f>Hoja1!$A$533:$A$541</c:f>
-              <c:strCache>
+            <c:numRef>
+              <c:f>Hoja1!$A$534:$A$542</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>MAXIMUM ERROR </c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$B$533:$B$541</c:f>
+              <c:f>Hoja1!$B$534:$B$542</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>36</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>43</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>55</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>21</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>39</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3936,11 +3944,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-817681024"/>
-        <c:axId val="-817675040"/>
+        <c:axId val="-1061035648"/>
+        <c:axId val="-1061025312"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-817681024"/>
+        <c:axId val="-1061035648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3983,7 +3991,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-817675040"/>
+        <c:crossAx val="-1061025312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3991,7 +3999,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-817675040"/>
+        <c:axId val="-1061025312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4042,7 +4050,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-817681024"/>
+        <c:crossAx val="-1061035648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4182,69 +4190,73 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
-              <c:f>Hoja1!$A$523:$A$531</c:f>
-              <c:strCache>
+            <c:numRef>
+              <c:f>Hoja1!$A$524:$A$532</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>ERROR </c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$B$523:$B$531</c:f>
+              <c:f>Hoja1!$B$524:$B$532</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1295</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>4349</c:v>
+                  <c:v>6736</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21861</c:v>
+                  <c:v>26030</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34058</c:v>
+                  <c:v>106990</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>64290</c:v>
+                  <c:v>342980</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>250867</c:v>
+                  <c:v>107167</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>92194</c:v>
+                  <c:v>27213</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45379</c:v>
+                  <c:v>5879</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16020</c:v>
+                  <c:v>196</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4260,11 +4272,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-817689184"/>
-        <c:axId val="-817678848"/>
+        <c:axId val="-1061032384"/>
+        <c:axId val="-1061031840"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-817689184"/>
+        <c:axId val="-1061032384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4307,7 +4319,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-817678848"/>
+        <c:crossAx val="-1061031840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4315,7 +4327,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-817678848"/>
+        <c:axId val="-1061031840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4366,7 +4378,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-817689184"/>
+        <c:crossAx val="-1061032384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4506,43 +4518,8 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
-              <c:f>Hoja1!$A$523:$A$531</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>ERROR </c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
             <c:numRef>
-              <c:f>Hoja1!$D$523:$D$531</c:f>
+              <c:f>Hoja1!$A$524:$A$532</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -4550,28 +4527,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22.533678756476682</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.3334451526333444</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.4191346250376466</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.7482460434002285</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.6992264759272806</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.8064149538570058</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.9653093324012585</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.7242044358727098</c:v>
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$D$524:$D$532</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>7.8963414634146343</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.6027088036117378</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.9543205177007996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4601623399020442</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1095556758352605</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.4622507122507122</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.9722272976429744</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.9445945945945944</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.5333333333333332</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4587,11 +4600,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-817677216"/>
-        <c:axId val="-817676672"/>
+        <c:axId val="-1061026944"/>
+        <c:axId val="-1061026400"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-817677216"/>
+        <c:axId val="-1061026944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4634,7 +4647,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-817676672"/>
+        <c:crossAx val="-1061026400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4642,7 +4655,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-817676672"/>
+        <c:axId val="-1061026400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4693,7 +4706,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-817677216"/>
+        <c:crossAx val="-1061026944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4833,69 +4846,73 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
-              <c:f>Hoja1!$A$543:$A$551</c:f>
-              <c:strCache>
+            <c:numRef>
+              <c:f>Hoja1!$A$544:$A$552</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>MEAN SQUARE </c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$B$543:$B$551</c:f>
+              <c:f>Hoja1!$B$544:$B$552</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1065831</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>1623028</c:v>
+                  <c:v>2254050</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5686063</c:v>
+                  <c:v>3677208</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3860692</c:v>
+                  <c:v>3416709</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1928549</c:v>
+                  <c:v>1027298</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>623233</c:v>
+                  <c:v>3507236</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2756486</c:v>
+                  <c:v>3830035</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5075475</c:v>
+                  <c:v>1787975</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4425195</c:v>
+                  <c:v>176498</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4911,11 +4928,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-817688096"/>
-        <c:axId val="-817687552"/>
+        <c:axId val="-1115289072"/>
+        <c:axId val="-1115287440"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-817688096"/>
+        <c:axId val="-1115289072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4958,7 +4975,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-817687552"/>
+        <c:crossAx val="-1115287440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4966,7 +4983,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-817687552"/>
+        <c:axId val="-1115287440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5017,7 +5034,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-817688096"/>
+        <c:crossAx val="-1115289072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8787,8 +8804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L552"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S36" sqref="S36"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E513" sqref="E513"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8899,7 +8916,7 @@
       </c>
       <c r="L6">
         <f>-SUM(E2:E511)</f>
-        <v>4.8677756959748271</v>
+        <v>4.8468777175605604</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -8922,7 +8939,7 @@
       </c>
       <c r="L7">
         <f>-SUM(E513:E521)</f>
-        <v>1.8364505443584913</v>
+        <v>1.5753779876467169</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -10930,15 +10947,15 @@
         <v>-124</v>
       </c>
       <c r="B133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D133">
         <f t="shared" si="4"/>
-        <v>3.814697265625E-6</v>
+        <v>0</v>
       </c>
       <c r="E133">
         <f t="shared" si="5"/>
-        <v>-6.866455078125E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
@@ -10962,15 +10979,15 @@
         <v>-122</v>
       </c>
       <c r="B135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D135">
         <f t="shared" si="4"/>
-        <v>3.814697265625E-6</v>
+        <v>0</v>
       </c>
       <c r="E135">
         <f t="shared" si="5"/>
-        <v>-6.866455078125E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
@@ -10978,15 +10995,15 @@
         <v>-121</v>
       </c>
       <c r="B136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D136">
         <f t="shared" si="4"/>
-        <v>3.814697265625E-6</v>
+        <v>0</v>
       </c>
       <c r="E136">
         <f t="shared" si="5"/>
-        <v>-6.866455078125E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
@@ -10994,15 +11011,15 @@
         <v>-120</v>
       </c>
       <c r="B137">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D137">
         <f t="shared" si="4"/>
-        <v>1.1444091796875E-5</v>
+        <v>0</v>
       </c>
       <c r="E137">
         <f t="shared" si="5"/>
-        <v>-1.8785519599089255E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
@@ -11010,15 +11027,15 @@
         <v>-119</v>
       </c>
       <c r="B138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D138">
         <f t="shared" si="4"/>
-        <v>3.814697265625E-6</v>
+        <v>0</v>
       </c>
       <c r="E138">
         <f t="shared" si="5"/>
-        <v>-6.866455078125E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
@@ -11042,15 +11059,15 @@
         <v>-117</v>
       </c>
       <c r="B140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D140">
         <f t="shared" si="4"/>
-        <v>3.814697265625E-6</v>
+        <v>0</v>
       </c>
       <c r="E140">
         <f t="shared" si="5"/>
-        <v>-6.866455078125E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
@@ -11058,15 +11075,15 @@
         <v>-116</v>
       </c>
       <c r="B141">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D141">
         <f t="shared" si="4"/>
-        <v>1.1444091796875E-5</v>
+        <v>3.814697265625E-6</v>
       </c>
       <c r="E141">
         <f t="shared" si="5"/>
-        <v>-1.8785519599089255E-4</v>
+        <v>-6.866455078125E-5</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
@@ -11074,15 +11091,15 @@
         <v>-115</v>
       </c>
       <c r="B142">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D142">
         <f t="shared" si="4"/>
-        <v>1.9073486328125E-5</v>
+        <v>0</v>
       </c>
       <c r="E142">
         <f t="shared" si="5"/>
-        <v>-2.9903549013352655E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
@@ -11090,15 +11107,15 @@
         <v>-114</v>
       </c>
       <c r="B143">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D143">
         <f t="shared" si="4"/>
-        <v>1.1444091796875E-5</v>
+        <v>0</v>
       </c>
       <c r="E143">
         <f t="shared" si="5"/>
-        <v>-1.8785519599089255E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
@@ -11106,15 +11123,15 @@
         <v>-113</v>
       </c>
       <c r="B144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D144">
         <f t="shared" si="4"/>
-        <v>3.814697265625E-6</v>
+        <v>0</v>
       </c>
       <c r="E144">
         <f t="shared" si="5"/>
-        <v>-6.866455078125E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
@@ -11122,15 +11139,15 @@
         <v>-112</v>
       </c>
       <c r="B145">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D145">
         <f t="shared" si="4"/>
-        <v>1.1444091796875E-5</v>
+        <v>0</v>
       </c>
       <c r="E145">
         <f t="shared" si="5"/>
-        <v>-1.8785519599089255E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
@@ -11138,15 +11155,15 @@
         <v>-111</v>
       </c>
       <c r="B146">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D146">
         <f t="shared" si="4"/>
-        <v>1.1444091796875E-5</v>
+        <v>0</v>
       </c>
       <c r="E146">
         <f t="shared" si="5"/>
-        <v>-1.8785519599089255E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
@@ -11154,15 +11171,15 @@
         <v>-110</v>
       </c>
       <c r="B147">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D147">
         <f t="shared" si="4"/>
-        <v>1.1444091796875E-5</v>
+        <v>0</v>
       </c>
       <c r="E147">
         <f t="shared" si="5"/>
-        <v>-1.8785519599089255E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
@@ -11170,15 +11187,15 @@
         <v>-109</v>
       </c>
       <c r="B148">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D148">
         <f t="shared" si="4"/>
-        <v>1.9073486328125E-5</v>
+        <v>0</v>
       </c>
       <c r="E148">
         <f t="shared" si="5"/>
-        <v>-2.9903549013352655E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
@@ -11186,15 +11203,15 @@
         <v>-108</v>
       </c>
       <c r="B149">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D149">
         <f t="shared" si="4"/>
-        <v>1.52587890625E-5</v>
+        <v>0</v>
       </c>
       <c r="E149">
         <f t="shared" si="5"/>
-        <v>-2.44140625E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
@@ -11202,15 +11219,15 @@
         <v>-107</v>
       </c>
       <c r="B150">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D150">
         <f t="shared" si="4"/>
-        <v>1.9073486328125E-5</v>
+        <v>3.814697265625E-6</v>
       </c>
       <c r="E150">
         <f t="shared" si="5"/>
-        <v>-2.9903549013352655E-4</v>
+        <v>-6.866455078125E-5</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
@@ -11218,15 +11235,15 @@
         <v>-106</v>
       </c>
       <c r="B151">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D151">
         <f t="shared" si="4"/>
-        <v>2.288818359375E-5</v>
+        <v>3.814697265625E-6</v>
       </c>
       <c r="E151">
         <f t="shared" si="5"/>
-        <v>-3.5282220838803505E-4</v>
+        <v>-6.866455078125E-5</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
@@ -11234,15 +11251,15 @@
         <v>-105</v>
       </c>
       <c r="B152">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D152">
         <f t="shared" si="4"/>
-        <v>2.6702880859375E-5</v>
+        <v>7.62939453125E-6</v>
       </c>
       <c r="E152">
         <f t="shared" si="5"/>
-        <v>-4.056873914550658E-4</v>
+        <v>-1.2969970703125E-4</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
@@ -11250,15 +11267,15 @@
         <v>-104</v>
       </c>
       <c r="B153">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D153">
         <f t="shared" si="4"/>
-        <v>1.1444091796875E-5</v>
+        <v>0</v>
       </c>
       <c r="E153">
         <f t="shared" si="5"/>
-        <v>-1.8785519599089255E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
@@ -11266,15 +11283,15 @@
         <v>-103</v>
       </c>
       <c r="B154">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D154">
         <f t="shared" si="4"/>
-        <v>1.9073486328125E-5</v>
+        <v>3.814697265625E-6</v>
       </c>
       <c r="E154">
         <f t="shared" si="5"/>
-        <v>-2.9903549013352655E-4</v>
+        <v>-6.866455078125E-5</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
@@ -11282,15 +11299,15 @@
         <v>-102</v>
       </c>
       <c r="B155">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D155">
         <f t="shared" si="4"/>
-        <v>1.52587890625E-5</v>
+        <v>0</v>
       </c>
       <c r="E155">
         <f t="shared" si="5"/>
-        <v>-2.44140625E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
@@ -11298,15 +11315,15 @@
         <v>-101</v>
       </c>
       <c r="B156">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D156">
         <f t="shared" si="4"/>
-        <v>1.1444091796875E-5</v>
+        <v>3.814697265625E-6</v>
       </c>
       <c r="E156">
         <f t="shared" si="5"/>
-        <v>-1.8785519599089255E-4</v>
+        <v>-6.866455078125E-5</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
@@ -11314,15 +11331,15 @@
         <v>-100</v>
       </c>
       <c r="B157">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D157">
         <f t="shared" si="4"/>
-        <v>1.9073486328125E-5</v>
+        <v>3.814697265625E-6</v>
       </c>
       <c r="E157">
         <f t="shared" si="5"/>
-        <v>-2.9903549013352655E-4</v>
+        <v>-6.866455078125E-5</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
@@ -11330,15 +11347,15 @@
         <v>-99</v>
       </c>
       <c r="B158">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D158">
         <f t="shared" si="4"/>
-        <v>3.4332275390625E-5</v>
+        <v>3.814697265625E-6</v>
       </c>
       <c r="E158">
         <f t="shared" si="5"/>
-        <v>-5.0915021891410515E-4</v>
+        <v>-6.866455078125E-5</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
@@ -11346,15 +11363,15 @@
         <v>-98</v>
       </c>
       <c r="B159">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D159">
         <f t="shared" si="4"/>
-        <v>2.6702880859375E-5</v>
+        <v>7.62939453125E-6</v>
       </c>
       <c r="E159">
         <f t="shared" si="5"/>
-        <v>-4.056873914550658E-4</v>
+        <v>-1.2969970703125E-4</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
@@ -11362,15 +11379,15 @@
         <v>-97</v>
       </c>
       <c r="B160">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D160">
         <f t="shared" si="4"/>
-        <v>3.0517578125E-5</v>
+        <v>3.814697265625E-6</v>
       </c>
       <c r="E160">
         <f t="shared" si="5"/>
-        <v>-4.57763671875E-4</v>
+        <v>-6.866455078125E-5</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
@@ -11378,15 +11395,15 @@
         <v>-96</v>
       </c>
       <c r="B161">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D161">
         <f t="shared" si="4"/>
-        <v>7.62939453125E-6</v>
+        <v>1.1444091796875E-5</v>
       </c>
       <c r="E161">
         <f t="shared" si="5"/>
-        <v>-1.2969970703125E-4</v>
+        <v>-1.8785519599089255E-4</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
@@ -11394,15 +11411,15 @@
         <v>-95</v>
       </c>
       <c r="B162">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D162">
         <f t="shared" si="4"/>
-        <v>2.288818359375E-5</v>
+        <v>3.814697265625E-6</v>
       </c>
       <c r="E162">
         <f t="shared" si="5"/>
-        <v>-3.5282220838803505E-4</v>
+        <v>-6.866455078125E-5</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
@@ -11410,15 +11427,15 @@
         <v>-94</v>
       </c>
       <c r="B163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D163">
         <f t="shared" si="4"/>
-        <v>3.814697265625E-6</v>
+        <v>0</v>
       </c>
       <c r="E163">
         <f t="shared" si="5"/>
-        <v>-6.866455078125E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
@@ -11426,15 +11443,15 @@
         <v>-93</v>
       </c>
       <c r="B164">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D164">
         <f t="shared" si="4"/>
-        <v>3.814697265625E-5</v>
+        <v>7.62939453125E-6</v>
       </c>
       <c r="E164">
         <f t="shared" si="5"/>
-        <v>-5.599240076108031E-4</v>
+        <v>-1.2969970703125E-4</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
@@ -11442,15 +11459,15 @@
         <v>-92</v>
       </c>
       <c r="B165">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D165">
         <f t="shared" si="4"/>
-        <v>3.814697265625E-5</v>
+        <v>1.1444091796875E-5</v>
       </c>
       <c r="E165">
         <f t="shared" si="5"/>
-        <v>-5.599240076108031E-4</v>
+        <v>-1.8785519599089255E-4</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
@@ -11458,15 +11475,15 @@
         <v>-91</v>
       </c>
       <c r="B166">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D166">
         <f t="shared" si="4"/>
-        <v>1.9073486328125E-5</v>
+        <v>1.52587890625E-5</v>
       </c>
       <c r="E166">
         <f t="shared" si="5"/>
-        <v>-2.9903549013352655E-4</v>
+        <v>-2.44140625E-4</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
@@ -11474,15 +11491,15 @@
         <v>-90</v>
       </c>
       <c r="B167">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D167">
         <f t="shared" si="4"/>
-        <v>3.4332275390625E-5</v>
+        <v>1.52587890625E-5</v>
       </c>
       <c r="E167">
         <f t="shared" si="5"/>
-        <v>-5.0915021891410515E-4</v>
+        <v>-2.44140625E-4</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
@@ -11490,15 +11507,15 @@
         <v>-89</v>
       </c>
       <c r="B168">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D168">
         <f t="shared" si="4"/>
-        <v>2.288818359375E-5</v>
+        <v>7.62939453125E-6</v>
       </c>
       <c r="E168">
         <f t="shared" si="5"/>
-        <v>-3.5282220838803505E-4</v>
+        <v>-1.2969970703125E-4</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
@@ -11506,15 +11523,15 @@
         <v>-88</v>
       </c>
       <c r="B169">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D169">
         <f t="shared" si="4"/>
-        <v>1.9073486328125E-5</v>
+        <v>1.1444091796875E-5</v>
       </c>
       <c r="E169">
         <f t="shared" si="5"/>
-        <v>-2.9903549013352655E-4</v>
+        <v>-1.8785519599089255E-4</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
@@ -11522,15 +11539,15 @@
         <v>-87</v>
       </c>
       <c r="B170">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D170">
         <f t="shared" si="4"/>
-        <v>2.288818359375E-5</v>
+        <v>1.52587890625E-5</v>
       </c>
       <c r="E170">
         <f t="shared" si="5"/>
-        <v>-3.5282220838803505E-4</v>
+        <v>-2.44140625E-4</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
@@ -11538,15 +11555,15 @@
         <v>-86</v>
       </c>
       <c r="B171">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D171">
         <f t="shared" si="4"/>
-        <v>3.0517578125E-5</v>
+        <v>1.52587890625E-5</v>
       </c>
       <c r="E171">
         <f t="shared" si="5"/>
-        <v>-4.57763671875E-4</v>
+        <v>-2.44140625E-4</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
@@ -11554,15 +11571,15 @@
         <v>-85</v>
       </c>
       <c r="B172">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D172">
         <f t="shared" si="4"/>
-        <v>3.0517578125E-5</v>
+        <v>1.1444091796875E-5</v>
       </c>
       <c r="E172">
         <f t="shared" si="5"/>
-        <v>-4.57763671875E-4</v>
+        <v>-1.8785519599089255E-4</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
@@ -11570,15 +11587,15 @@
         <v>-84</v>
       </c>
       <c r="B173">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D173">
         <f t="shared" si="4"/>
-        <v>2.288818359375E-5</v>
+        <v>1.52587890625E-5</v>
       </c>
       <c r="E173">
         <f t="shared" si="5"/>
-        <v>-3.5282220838803505E-4</v>
+        <v>-2.44140625E-4</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
@@ -11586,15 +11603,15 @@
         <v>-83</v>
       </c>
       <c r="B174">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D174">
         <f t="shared" si="4"/>
-        <v>1.1444091796875E-5</v>
+        <v>3.0517578125E-5</v>
       </c>
       <c r="E174">
         <f t="shared" si="5"/>
-        <v>-1.8785519599089255E-4</v>
+        <v>-4.57763671875E-4</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
@@ -11602,15 +11619,15 @@
         <v>-82</v>
       </c>
       <c r="B175">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D175">
         <f t="shared" si="4"/>
-        <v>4.57763671875E-5</v>
+        <v>1.9073486328125E-5</v>
       </c>
       <c r="E175">
         <f t="shared" si="5"/>
-        <v>-6.598680495885701E-4</v>
+        <v>-2.9903549013352655E-4</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
@@ -11618,15 +11635,15 @@
         <v>-81</v>
       </c>
       <c r="B176">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D176">
         <f t="shared" si="4"/>
-        <v>3.4332275390625E-5</v>
+        <v>1.9073486328125E-5</v>
       </c>
       <c r="E176">
         <f t="shared" si="5"/>
-        <v>-5.0915021891410515E-4</v>
+        <v>-2.9903549013352655E-4</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
@@ -11634,15 +11651,15 @@
         <v>-80</v>
       </c>
       <c r="B177">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D177">
         <f t="shared" si="4"/>
-        <v>3.4332275390625E-5</v>
+        <v>3.0517578125E-5</v>
       </c>
       <c r="E177">
         <f t="shared" si="5"/>
-        <v>-5.0915021891410515E-4</v>
+        <v>-4.57763671875E-4</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
@@ -11666,15 +11683,15 @@
         <v>-78</v>
       </c>
       <c r="B179">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D179">
         <f t="shared" si="4"/>
-        <v>4.57763671875E-5</v>
+        <v>1.9073486328125E-5</v>
       </c>
       <c r="E179">
         <f t="shared" si="5"/>
-        <v>-6.598680495885701E-4</v>
+        <v>-2.9903549013352655E-4</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
@@ -11682,15 +11699,15 @@
         <v>-77</v>
       </c>
       <c r="B180">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D180">
         <f t="shared" si="4"/>
-        <v>3.0517578125E-5</v>
+        <v>2.288818359375E-5</v>
       </c>
       <c r="E180">
         <f t="shared" si="5"/>
-        <v>-4.57763671875E-4</v>
+        <v>-3.5282220838803505E-4</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
@@ -11698,15 +11715,15 @@
         <v>-76</v>
       </c>
       <c r="B181">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D181">
         <f t="shared" si="4"/>
-        <v>2.6702880859375E-5</v>
+        <v>1.9073486328125E-5</v>
       </c>
       <c r="E181">
         <f t="shared" si="5"/>
-        <v>-4.056873914550658E-4</v>
+        <v>-2.9903549013352655E-4</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
@@ -11746,15 +11763,15 @@
         <v>-73</v>
       </c>
       <c r="B184">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D184">
         <f t="shared" si="4"/>
-        <v>5.7220458984375E-5</v>
+        <v>2.288818359375E-5</v>
       </c>
       <c r="E184">
         <f t="shared" si="5"/>
-        <v>-8.0641418863629233E-4</v>
+        <v>-3.5282220838803505E-4</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
@@ -11762,15 +11779,15 @@
         <v>-72</v>
       </c>
       <c r="B185">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D185">
         <f t="shared" si="4"/>
-        <v>4.9591064453125E-5</v>
+        <v>2.288818359375E-5</v>
       </c>
       <c r="E185">
         <f t="shared" si="5"/>
-        <v>-7.0913041558901143E-4</v>
+        <v>-3.5282220838803505E-4</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
@@ -11778,15 +11795,15 @@
         <v>-71</v>
       </c>
       <c r="B186">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D186">
         <f t="shared" si="4"/>
-        <v>6.103515625E-5</v>
+        <v>2.288818359375E-5</v>
       </c>
       <c r="E186">
         <f t="shared" si="5"/>
-        <v>-8.544921875E-4</v>
+        <v>-3.5282220838803505E-4</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
@@ -11794,15 +11811,15 @@
         <v>-70</v>
       </c>
       <c r="B187">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D187">
         <f t="shared" si="4"/>
-        <v>7.62939453125E-5</v>
+        <v>4.1961669921875E-5</v>
       </c>
       <c r="E187">
         <f t="shared" si="5"/>
-        <v>-1.0435540699091062E-3</v>
+        <v>-6.1014653089519401E-4</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
@@ -11810,15 +11827,15 @@
         <v>-69</v>
       </c>
       <c r="B188">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D188">
         <f t="shared" si="4"/>
-        <v>5.340576171875E-5</v>
+        <v>4.57763671875E-5</v>
       </c>
       <c r="E188">
         <f t="shared" si="5"/>
-        <v>-7.579690211913816E-4</v>
+        <v>-6.598680495885701E-4</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
@@ -11826,15 +11843,15 @@
         <v>-68</v>
       </c>
       <c r="B189">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D189">
         <f t="shared" si="4"/>
-        <v>8.0108642578125E-5</v>
+        <v>4.1961669921875E-5</v>
       </c>
       <c r="E189">
         <f t="shared" si="5"/>
-        <v>-1.0900929798951951E-3</v>
+        <v>-6.1014653089519401E-4</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
@@ -11842,15 +11859,15 @@
         <v>-67</v>
       </c>
       <c r="B190">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D190">
         <f t="shared" si="4"/>
-        <v>7.62939453125E-5</v>
+        <v>6.4849853515625E-5</v>
       </c>
       <c r="E190">
         <f t="shared" si="5"/>
-        <v>-1.0435540699091062E-3</v>
+        <v>-9.0222599677560529E-4</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
@@ -11858,15 +11875,15 @@
         <v>-66</v>
       </c>
       <c r="B191">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D191">
         <f t="shared" si="4"/>
-        <v>6.103515625E-5</v>
+        <v>3.814697265625E-5</v>
       </c>
       <c r="E191">
         <f t="shared" si="5"/>
-        <v>-8.544921875E-4</v>
+        <v>-5.599240076108031E-4</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
@@ -11874,15 +11891,15 @@
         <v>-65</v>
       </c>
       <c r="B192">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D192">
         <f t="shared" si="4"/>
-        <v>5.7220458984375E-5</v>
+        <v>3.0517578125E-5</v>
       </c>
       <c r="E192">
         <f t="shared" si="5"/>
-        <v>-8.0641418863629233E-4</v>
+        <v>-4.57763671875E-4</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
@@ -11890,15 +11907,15 @@
         <v>-64</v>
       </c>
       <c r="B193">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D193">
         <f t="shared" si="4"/>
-        <v>6.103515625E-5</v>
+        <v>4.9591064453125E-5</v>
       </c>
       <c r="E193">
         <f t="shared" si="5"/>
-        <v>-8.544921875E-4</v>
+        <v>-7.0913041558901143E-4</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
@@ -11906,15 +11923,15 @@
         <v>-63</v>
       </c>
       <c r="B194">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D194">
         <f t="shared" si="4"/>
-        <v>1.068115234375E-4</v>
+        <v>3.4332275390625E-5</v>
       </c>
       <c r="E194">
         <f t="shared" si="5"/>
-        <v>-1.4091265189452632E-3</v>
+        <v>-5.0915021891410515E-4</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
@@ -11922,15 +11939,15 @@
         <v>-62</v>
       </c>
       <c r="B195">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D195">
         <f t="shared" ref="D195:D258" si="6">B195/L$5</f>
-        <v>6.4849853515625E-5</v>
+        <v>6.866455078125E-5</v>
       </c>
       <c r="E195">
         <f t="shared" ref="E195:E258" si="7">IF(D195&lt;&gt;0,D195*LOG(D195,2),0)</f>
-        <v>-9.0222599677560529E-4</v>
+        <v>-9.4963588704696051E-4</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
@@ -11938,15 +11955,15 @@
         <v>-61</v>
       </c>
       <c r="B196">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D196">
         <f t="shared" si="6"/>
-        <v>6.103515625E-5</v>
+        <v>7.2479248046875E-5</v>
       </c>
       <c r="E196">
         <f t="shared" si="7"/>
-        <v>-8.544921875E-4</v>
+        <v>-9.9673987291172745E-4</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
@@ -11954,15 +11971,15 @@
         <v>-60</v>
       </c>
       <c r="B197">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D197">
         <f t="shared" si="6"/>
-        <v>8.7738037109375E-5</v>
+        <v>8.0108642578125E-5</v>
       </c>
       <c r="E197">
         <f t="shared" si="7"/>
-        <v>-1.1823962212016629E-3</v>
+        <v>-1.0900929798951951E-3</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
@@ -11970,15 +11987,15 @@
         <v>-59</v>
       </c>
       <c r="B198">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D198">
         <f t="shared" si="6"/>
-        <v>1.068115234375E-4</v>
+        <v>8.7738037109375E-5</v>
       </c>
       <c r="E198">
         <f t="shared" si="7"/>
-        <v>-1.4091265189452632E-3</v>
+        <v>-1.1823962212016629E-3</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
@@ -11986,15 +12003,15 @@
         <v>-58</v>
       </c>
       <c r="B199">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D199">
         <f t="shared" si="6"/>
-        <v>7.2479248046875E-5</v>
+        <v>4.9591064453125E-5</v>
       </c>
       <c r="E199">
         <f t="shared" si="7"/>
-        <v>-9.9673987291172745E-4</v>
+        <v>-7.0913041558901143E-4</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
@@ -12002,15 +12019,15 @@
         <v>-57</v>
       </c>
       <c r="B200">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D200">
         <f t="shared" si="6"/>
-        <v>1.18255615234375E-4</v>
+        <v>8.0108642578125E-5</v>
       </c>
       <c r="E200">
         <f t="shared" si="7"/>
-        <v>-1.5427395415420796E-3</v>
+        <v>-1.0900929798951951E-3</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
@@ -12018,15 +12035,15 @@
         <v>-56</v>
       </c>
       <c r="B201">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D201">
         <f t="shared" si="6"/>
-        <v>1.18255615234375E-4</v>
+        <v>1.068115234375E-4</v>
       </c>
       <c r="E201">
         <f t="shared" si="7"/>
-        <v>-1.5427395415420796E-3</v>
+        <v>-1.4091265189452632E-3</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
@@ -12034,15 +12051,15 @@
         <v>-55</v>
       </c>
       <c r="B202">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D202">
         <f t="shared" si="6"/>
-        <v>8.392333984375E-5</v>
+        <v>1.068115234375E-4</v>
       </c>
       <c r="E202">
         <f t="shared" si="7"/>
-        <v>-1.1363697219466378E-3</v>
+        <v>-1.4091265189452632E-3</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
@@ -12050,15 +12067,15 @@
         <v>-54</v>
       </c>
       <c r="B203">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D203">
         <f t="shared" si="6"/>
-        <v>9.918212890625E-5</v>
+        <v>7.62939453125E-5</v>
       </c>
       <c r="E203">
         <f t="shared" si="7"/>
-        <v>-1.3190787022717729E-3</v>
+        <v>-1.0435540699091062E-3</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
@@ -12066,15 +12083,15 @@
         <v>-53</v>
       </c>
       <c r="B204">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D204">
         <f t="shared" si="6"/>
-        <v>1.33514404296875E-4</v>
+        <v>1.220703125E-4</v>
       </c>
       <c r="E204">
         <f t="shared" si="7"/>
-        <v>-1.7184261108662651E-3</v>
+        <v>-1.5869140625E-3</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
@@ -12082,15 +12099,15 @@
         <v>-52</v>
       </c>
       <c r="B205">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D205">
         <f t="shared" si="6"/>
-        <v>1.6021728515625E-4</v>
+        <v>1.48773193359375E-4</v>
       </c>
       <c r="E205">
         <f t="shared" si="7"/>
-        <v>-2.0199686746341402E-3</v>
+        <v>-1.8915913141798874E-3</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
@@ -12098,15 +12115,15 @@
         <v>-51</v>
       </c>
       <c r="B206">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D206">
         <f t="shared" si="6"/>
-        <v>1.4495849609375E-4</v>
+        <v>1.71661376953125E-4</v>
       </c>
       <c r="E206">
         <f t="shared" si="7"/>
-        <v>-1.8485212497297049E-3</v>
+        <v>-2.1471657206160151E-3</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
@@ -12114,15 +12131,15 @@
         <v>-50</v>
       </c>
       <c r="B207">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D207">
         <f t="shared" si="6"/>
-        <v>1.71661376953125E-4</v>
+        <v>1.48773193359375E-4</v>
       </c>
       <c r="E207">
         <f t="shared" si="7"/>
-        <v>-2.1471657206160151E-3</v>
+        <v>-1.8915913141798874E-3</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
@@ -12130,15 +12147,15 @@
         <v>-49</v>
       </c>
       <c r="B208">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D208">
         <f t="shared" si="6"/>
-        <v>1.4495849609375E-4</v>
+        <v>1.373291015625E-4</v>
       </c>
       <c r="E208">
         <f t="shared" si="7"/>
-        <v>-1.8485212497297049E-3</v>
+        <v>-1.761942672531421E-3</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
@@ -12146,15 +12163,15 @@
         <v>-48</v>
       </c>
       <c r="B209">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D209">
         <f t="shared" si="6"/>
-        <v>1.79290771484375E-4</v>
+        <v>1.983642578125E-4</v>
       </c>
       <c r="E209">
         <f t="shared" si="7"/>
-        <v>-2.2313473662229581E-3</v>
+        <v>-2.4397931467310457E-3</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
@@ -12162,15 +12179,15 @@
         <v>-47</v>
       </c>
       <c r="B210">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D210">
         <f t="shared" si="6"/>
-        <v>1.983642578125E-4</v>
+        <v>1.678466796875E-4</v>
       </c>
       <c r="E210">
         <f t="shared" si="7"/>
-        <v>-2.4397931467310457E-3</v>
+        <v>-2.1048927642057756E-3</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
@@ -12178,15 +12195,15 @@
         <v>-46</v>
       </c>
       <c r="B211">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="D211">
         <f t="shared" si="6"/>
-        <v>2.44140625E-4</v>
+        <v>1.6021728515625E-4</v>
       </c>
       <c r="E211">
         <f t="shared" si="7"/>
-        <v>-2.9296875E-3</v>
+        <v>-2.0199686746341402E-3</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
@@ -12194,15 +12211,15 @@
         <v>-45</v>
       </c>
       <c r="B212">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D212">
         <f t="shared" si="6"/>
-        <v>2.2125244140625E-4</v>
+        <v>2.47955322265625E-4</v>
       </c>
       <c r="E212">
         <f t="shared" si="7"/>
-        <v>-2.6864513484291105E-3</v>
+        <v>-2.9699176488996522E-3</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
@@ -12210,15 +12227,15 @@
         <v>-44</v>
       </c>
       <c r="B213">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="D213">
         <f t="shared" si="6"/>
-        <v>2.6702880859375E-4</v>
+        <v>2.02178955078125E-4</v>
       </c>
       <c r="E213">
         <f t="shared" si="7"/>
-        <v>-3.1698234131387801E-3</v>
+        <v>-2.4811562191320432E-3</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
@@ -12226,15 +12243,15 @@
         <v>-43</v>
       </c>
       <c r="B214">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="D214">
         <f t="shared" si="6"/>
-        <v>3.24249267578125E-4</v>
+        <v>2.32696533203125E-4</v>
       </c>
       <c r="E214">
         <f t="shared" si="7"/>
-        <v>-3.758246499741727E-3</v>
+        <v>-2.808475579867035E-3</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
@@ -12242,15 +12259,15 @@
         <v>-42</v>
       </c>
       <c r="B215">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="D215">
         <f t="shared" si="6"/>
-        <v>3.01361083984375E-4</v>
+        <v>2.44140625E-4</v>
       </c>
       <c r="E215">
         <f t="shared" si="7"/>
-        <v>-3.524785312248264E-3</v>
+        <v>-2.9296875E-3</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
@@ -12258,15 +12275,15 @@
         <v>-41</v>
       </c>
       <c r="B216">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="D216">
         <f t="shared" si="6"/>
-        <v>3.2806396484375E-4</v>
+        <v>2.5177001953125E-4</v>
       </c>
       <c r="E216">
         <f t="shared" si="7"/>
-        <v>-3.7969254726242813E-3</v>
+        <v>-3.0100631260770497E-3</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
@@ -12274,15 +12291,15 @@
         <v>-40</v>
       </c>
       <c r="B217">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="D217">
         <f t="shared" si="6"/>
-        <v>3.92913818359375E-4</v>
+        <v>3.204345703125E-4</v>
       </c>
       <c r="E217">
         <f t="shared" si="7"/>
-        <v>-4.4452302768712175E-3</v>
+        <v>-3.7195027789557805E-3</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
@@ -12290,15 +12307,15 @@
         <v>-39</v>
       </c>
       <c r="B218">
-        <v>122</v>
+        <v>88</v>
       </c>
       <c r="D218">
         <f t="shared" si="6"/>
-        <v>4.6539306640625E-4</v>
+        <v>3.35693359375E-4</v>
       </c>
       <c r="E218">
         <f t="shared" si="7"/>
-        <v>-5.1515580933278191E-3</v>
+        <v>-3.8740921690365521E-3</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
@@ -12306,15 +12323,15 @@
         <v>-38</v>
       </c>
       <c r="B219">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="D219">
         <f t="shared" si="6"/>
-        <v>4.57763671875E-4</v>
+        <v>3.204345703125E-4</v>
       </c>
       <c r="E219">
         <f t="shared" si="7"/>
-        <v>-5.0780224934653395E-3</v>
+        <v>-3.7195027789557805E-3</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
@@ -12322,15 +12339,15 @@
         <v>-37</v>
       </c>
       <c r="B220">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="D220">
         <f t="shared" si="6"/>
-        <v>4.9591064453125E-4</v>
+        <v>3.85284423828125E-4</v>
       </c>
       <c r="E220">
         <f t="shared" si="7"/>
-        <v>-5.4439246532680544E-3</v>
+        <v>-4.3698144540484183E-3</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
@@ -12338,15 +12355,15 @@
         <v>-36</v>
       </c>
       <c r="B221">
-        <v>147</v>
+        <v>114</v>
       </c>
       <c r="D221">
         <f t="shared" si="6"/>
-        <v>5.60760498046875E-4</v>
+        <v>4.3487548828125E-4</v>
       </c>
       <c r="E221">
         <f t="shared" si="7"/>
-        <v>-6.0563971149789984E-3</v>
+        <v>-4.8563024077805305E-3</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
@@ -12354,15 +12371,15 @@
         <v>-35</v>
       </c>
       <c r="B222">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="D222">
         <f t="shared" si="6"/>
-        <v>5.30242919921875E-4</v>
+        <v>4.99725341796875E-4</v>
       </c>
       <c r="E222">
         <f t="shared" si="7"/>
-        <v>-5.7696044574410731E-3</v>
+        <v>-5.4802764388984454E-3</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
@@ -12370,15 +12387,15 @@
         <v>-34</v>
       </c>
       <c r="B223">
-        <v>167</v>
+        <v>110</v>
       </c>
       <c r="D223">
         <f t="shared" si="6"/>
-        <v>6.37054443359375E-4</v>
+        <v>4.1961669921875E-4</v>
       </c>
       <c r="E223">
         <f t="shared" si="7"/>
-        <v>-6.7631583524964652E-3</v>
+        <v>-4.7075288067332747E-3</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
@@ -12386,15 +12403,15 @@
         <v>-33</v>
       </c>
       <c r="B224">
-        <v>193</v>
+        <v>144</v>
       </c>
       <c r="D224">
         <f t="shared" si="6"/>
-        <v>7.36236572265625E-4</v>
+        <v>5.4931640625E-4</v>
       </c>
       <c r="E224">
         <f t="shared" si="7"/>
-        <v>-7.6624137565889762E-3</v>
+        <v>-5.9491378776256832E-3</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
@@ -12402,15 +12419,15 @@
         <v>-32</v>
       </c>
       <c r="B225">
-        <v>211</v>
+        <v>162</v>
       </c>
       <c r="D225">
         <f t="shared" si="6"/>
-        <v>8.04901123046875E-4</v>
+        <v>6.1798095703125E-4</v>
       </c>
       <c r="E225">
         <f t="shared" si="7"/>
-        <v>-8.2734988066970206E-3</v>
+        <v>-6.5877696973140366E-3</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
@@ -12418,15 +12435,15 @@
         <v>-31</v>
       </c>
       <c r="B226">
-        <v>206</v>
+        <v>165</v>
       </c>
       <c r="D226">
         <f t="shared" si="6"/>
-        <v>7.8582763671875E-4</v>
+        <v>6.29425048828125E-4</v>
       </c>
       <c r="E226">
         <f t="shared" si="7"/>
-        <v>-8.1046329170236849E-3</v>
+        <v>-6.6931031595208754E-3</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
@@ -12434,15 +12451,15 @@
         <v>-30</v>
       </c>
       <c r="B227">
-        <v>257</v>
+        <v>184</v>
       </c>
       <c r="D227">
         <f t="shared" si="6"/>
-        <v>9.80377197265625E-4</v>
+        <v>7.01904296875E-4</v>
       </c>
       <c r="E227">
         <f t="shared" si="7"/>
-        <v>-9.7982577928816747E-3</v>
+        <v>-7.3534568789883018E-3</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
@@ -12450,15 +12467,15 @@
         <v>-29</v>
       </c>
       <c r="B228">
-        <v>272</v>
+        <v>191</v>
       </c>
       <c r="D228">
         <f t="shared" si="6"/>
-        <v>1.03759765625E-3</v>
+        <v>7.28607177734375E-4</v>
       </c>
       <c r="E228">
         <f t="shared" si="7"/>
-        <v>-1.0285225323409683E-2</v>
+        <v>-7.5939601663405311E-3</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
@@ -12466,15 +12483,15 @@
         <v>-28</v>
       </c>
       <c r="B229">
-        <v>280</v>
+        <v>229</v>
       </c>
       <c r="D229">
         <f t="shared" si="6"/>
-        <v>1.068115234375E-3</v>
+        <v>8.73565673828125E-4</v>
       </c>
       <c r="E229">
         <f t="shared" si="7"/>
-        <v>-1.0543063183805121E-2</v>
+        <v>-8.8761227894813537E-3</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
@@ -12482,15 +12499,15 @@
         <v>-27</v>
       </c>
       <c r="B230">
-        <v>290</v>
+        <v>243</v>
       </c>
       <c r="D230">
         <f t="shared" si="6"/>
-        <v>1.10626220703125E-3</v>
+        <v>9.26971435546875E-4</v>
       </c>
       <c r="E230">
         <f t="shared" si="7"/>
-        <v>-1.0863595443327595E-2</v>
+        <v>-9.3394110169364754E-3</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
@@ -12498,15 +12515,15 @@
         <v>-26</v>
       </c>
       <c r="B231">
-        <v>326</v>
+        <v>265</v>
       </c>
       <c r="D231">
         <f t="shared" si="6"/>
-        <v>1.24359130859375E-3</v>
+        <v>1.010894775390625E-3</v>
       </c>
       <c r="E231">
         <f t="shared" si="7"/>
-        <v>-1.2002237784273792E-2</v>
+        <v>-1.0058556115705877E-2</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
@@ -12514,15 +12531,15 @@
         <v>-25</v>
       </c>
       <c r="B232">
-        <v>346</v>
+        <v>312</v>
       </c>
       <c r="D232">
         <f t="shared" si="6"/>
-        <v>1.31988525390625E-3</v>
+        <v>1.190185546875E-3</v>
       </c>
       <c r="E232">
         <f t="shared" si="7"/>
-        <v>-1.262519315047338E-2</v>
+        <v>-1.1562173872814096E-2</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
@@ -12530,15 +12547,15 @@
         <v>-24</v>
       </c>
       <c r="B233">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D233">
         <f t="shared" si="6"/>
-        <v>1.308441162109375E-3</v>
+        <v>1.293182373046875E-3</v>
       </c>
       <c r="E233">
         <f t="shared" si="7"/>
-        <v>-1.2532164707957176E-2</v>
+        <v>-1.240790193175041E-2</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
@@ -12546,15 +12563,15 @@
         <v>-23</v>
       </c>
       <c r="B234">
-        <v>406</v>
+        <v>358</v>
       </c>
       <c r="D234">
         <f t="shared" si="6"/>
-        <v>1.54876708984375E-3</v>
+        <v>1.36566162109375E-3</v>
       </c>
       <c r="E234">
         <f t="shared" si="7"/>
-        <v>-1.4457220526210093E-2</v>
+        <v>-1.2995887572248063E-2</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
@@ -12562,15 +12579,15 @@
         <v>-22</v>
       </c>
       <c r="B235">
-        <v>488</v>
+        <v>378</v>
       </c>
       <c r="D235">
         <f t="shared" si="6"/>
-        <v>1.861572265625E-3</v>
+        <v>1.44195556640625E-3</v>
       </c>
       <c r="E235">
         <f t="shared" si="7"/>
-        <v>-1.688308784206128E-2</v>
+        <v>-1.360882707078718E-2</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
@@ -12578,15 +12595,15 @@
         <v>-21</v>
       </c>
       <c r="B236">
-        <v>533</v>
+        <v>422</v>
       </c>
       <c r="D236">
         <f t="shared" si="6"/>
-        <v>2.033233642578125E-3</v>
+        <v>1.60980224609375E-3</v>
       </c>
       <c r="E236">
         <f t="shared" si="7"/>
-        <v>-1.8181192061498107E-2</v>
+        <v>-1.4937195367300291E-2</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
@@ -12594,15 +12611,15 @@
         <v>-20</v>
       </c>
       <c r="B237">
-        <v>568</v>
+        <v>480</v>
       </c>
       <c r="D237">
         <f t="shared" si="6"/>
-        <v>2.166748046875E-3</v>
+        <v>1.8310546875E-3</v>
       </c>
       <c r="E237">
         <f t="shared" si="7"/>
-        <v>-1.9176268143163075E-2</v>
+        <v>-1.6649980598861358E-2</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
@@ -12610,15 +12627,15 @@
         <v>-19</v>
       </c>
       <c r="B238">
-        <v>628</v>
+        <v>607</v>
       </c>
       <c r="D238">
         <f t="shared" si="6"/>
-        <v>2.3956298828125E-3</v>
+        <v>2.315521240234375E-3</v>
       </c>
       <c r="E238">
         <f t="shared" si="7"/>
-        <v>-2.0854866675171124E-2</v>
+        <v>-2.0271108655177311E-2</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
@@ -12626,15 +12643,15 @@
         <v>-18</v>
       </c>
       <c r="B239">
-        <v>691</v>
+        <v>642</v>
       </c>
       <c r="D239">
         <f t="shared" si="6"/>
-        <v>2.635955810546875E-3</v>
+        <v>2.44903564453125E-3</v>
       </c>
       <c r="E239">
         <f t="shared" si="7"/>
-        <v>-2.2583440959288461E-2</v>
+        <v>-2.1241883351392675E-2</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
@@ -12642,15 +12659,15 @@
         <v>-17</v>
       </c>
       <c r="B240">
-        <v>720</v>
+        <v>740</v>
       </c>
       <c r="D240">
         <f t="shared" si="6"/>
-        <v>2.74658203125E-3</v>
+        <v>2.8228759765625E-3</v>
       </c>
       <c r="E240">
         <f t="shared" si="7"/>
-        <v>-2.3368323404856239E-2</v>
+        <v>-2.3905859829780312E-2</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
@@ -12658,15 +12675,15 @@
         <v>-16</v>
       </c>
       <c r="B241">
-        <v>867</v>
+        <v>835</v>
       </c>
       <c r="D241">
         <f t="shared" si="6"/>
-        <v>3.307342529296875E-3</v>
+        <v>3.185272216796875E-3</v>
       </c>
       <c r="E241">
         <f t="shared" si="7"/>
-        <v>-2.7252872257792167E-2</v>
+        <v>-2.6419818712437513E-2</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
@@ -12674,15 +12691,15 @@
         <v>-15</v>
       </c>
       <c r="B242">
-        <v>989</v>
+        <v>968</v>
       </c>
       <c r="D242">
         <f t="shared" si="6"/>
-        <v>3.772735595703125E-3</v>
+        <v>3.692626953125E-3</v>
       </c>
       <c r="E242">
         <f t="shared" si="7"/>
-        <v>-3.0371175319897616E-2</v>
+        <v>-2.9840623421929141E-2</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
@@ -12690,15 +12707,15 @@
         <v>-14</v>
       </c>
       <c r="B243">
-        <v>1103</v>
+        <v>1092</v>
       </c>
       <c r="D243">
         <f t="shared" si="6"/>
-        <v>4.207611083984375E-3</v>
+        <v>4.1656494140625E-3</v>
       </c>
       <c r="E243">
         <f t="shared" si="7"/>
-        <v>-3.320976091622431E-2</v>
+        <v>-3.2938801582777101E-2</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
@@ -12706,15 +12723,15 @@
         <v>-13</v>
       </c>
       <c r="B244">
-        <v>1258</v>
+        <v>1294</v>
       </c>
       <c r="D244">
         <f t="shared" si="6"/>
-        <v>4.79888916015625E-3</v>
+        <v>4.93621826171875E-3</v>
       </c>
       <c r="E244">
         <f t="shared" si="7"/>
-        <v>-3.6966245314582272E-2</v>
+        <v>-3.7823170695578369E-2</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
@@ -12722,15 +12739,15 @@
         <v>-12</v>
       </c>
       <c r="B245">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="D245">
         <f t="shared" si="6"/>
-        <v>5.786895751953125E-3</v>
+        <v>6.122589111328125E-3</v>
       </c>
       <c r="E245">
         <f t="shared" si="7"/>
-        <v>-4.3013965047207836E-2</v>
+        <v>-4.5011085818765589E-2</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
@@ -12738,15 +12755,15 @@
         <v>-11</v>
       </c>
       <c r="B246">
-        <v>1765</v>
+        <v>2066</v>
       </c>
       <c r="D246">
         <f t="shared" si="6"/>
-        <v>6.732940673828125E-3</v>
+        <v>7.88116455078125E-3</v>
       </c>
       <c r="E246">
         <f t="shared" si="7"/>
-        <v>-4.8575120520401659E-2</v>
+        <v>-5.506865578729548E-2</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
@@ -12754,15 +12771,15 @@
         <v>-10</v>
       </c>
       <c r="B247">
-        <v>2143</v>
+        <v>2676</v>
       </c>
       <c r="D247">
         <f t="shared" si="6"/>
-        <v>8.174896240234375E-3</v>
+        <v>1.02081298828125E-2</v>
       </c>
       <c r="E247">
         <f t="shared" si="7"/>
-        <v>-5.6689503568222645E-2</v>
+        <v>-6.7517975677045636E-2</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
@@ -12770,15 +12787,15 @@
         <v>-9</v>
       </c>
       <c r="B248">
-        <v>2582</v>
+        <v>3420</v>
       </c>
       <c r="D248">
         <f t="shared" si="6"/>
-        <v>9.84954833984375E-3</v>
+        <v>1.30462646484375E-2</v>
       </c>
       <c r="E248">
         <f t="shared" si="7"/>
-        <v>-6.5654397496554689E-2</v>
+        <v>-8.1672478922178077E-2</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
@@ -12786,15 +12803,15 @@
         <v>-8</v>
       </c>
       <c r="B249">
-        <v>3311</v>
+        <v>4529</v>
       </c>
       <c r="D249">
         <f t="shared" si="6"/>
-        <v>1.2630462646484375E-2</v>
+        <v>1.7276763916015625E-2</v>
       </c>
       <c r="E249">
         <f t="shared" si="7"/>
-        <v>-7.9659680026781227E-2</v>
+        <v>-0.10115585313368623</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
@@ -12802,15 +12819,15 @@
         <v>-7</v>
       </c>
       <c r="B250">
-        <v>4368</v>
+        <v>6245</v>
       </c>
       <c r="D250">
         <f t="shared" si="6"/>
-        <v>1.666259765625E-2</v>
+        <v>2.3822784423828125E-2</v>
       </c>
       <c r="E250">
         <f t="shared" si="7"/>
-        <v>-9.8430011018608432E-2</v>
+        <v>-0.12844087915873234</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
@@ -12818,15 +12835,15 @@
         <v>-6</v>
       </c>
       <c r="B251">
-        <v>5801</v>
+        <v>8254</v>
       </c>
       <c r="D251">
         <f t="shared" si="6"/>
-        <v>2.2129058837890625E-2</v>
+        <v>3.148651123046875E-2</v>
       </c>
       <c r="E251">
         <f t="shared" si="7"/>
-        <v>-0.12166366451636419</v>
+        <v>-0.15709005460472084</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
@@ -12834,15 +12851,15 @@
         <v>-5</v>
       </c>
       <c r="B252">
-        <v>7848</v>
+        <v>10912</v>
       </c>
       <c r="D252">
         <f t="shared" si="6"/>
-        <v>2.9937744140625E-2</v>
+        <v>4.16259765625E-2</v>
       </c>
       <c r="E252">
         <f t="shared" si="7"/>
-        <v>-0.15154158785946434</v>
+        <v>-0.1909122163333444</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
@@ -12850,15 +12867,15 @@
         <v>-4</v>
       </c>
       <c r="B253">
-        <v>10494</v>
+        <v>13787</v>
       </c>
       <c r="D253">
         <f t="shared" si="6"/>
-        <v>4.003143310546875E-2</v>
+        <v>5.2593231201171875E-2</v>
       </c>
       <c r="E253">
         <f t="shared" si="7"/>
-        <v>-0.1858548522136626</v>
+        <v>-0.22346753778395856</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
@@ -12866,15 +12883,15 @@
         <v>-3</v>
       </c>
       <c r="B254">
-        <v>13937</v>
+        <v>16780</v>
       </c>
       <c r="D254">
         <f t="shared" si="6"/>
-        <v>5.3165435791015625E-2</v>
+        <v>6.40106201171875E-2</v>
       </c>
       <c r="E254">
         <f t="shared" si="7"/>
-        <v>-0.22506883184073076</v>
+        <v>-0.25383698845066005</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
@@ -12882,15 +12899,15 @@
         <v>-2</v>
       </c>
       <c r="B255">
-        <v>17735</v>
+        <v>19058</v>
       </c>
       <c r="D255">
         <f t="shared" si="6"/>
-        <v>6.7653656005859375E-2</v>
+        <v>7.270050048828125E-2</v>
       </c>
       <c r="E255">
         <f t="shared" si="7"/>
-        <v>-0.26288101892966104</v>
+        <v>-0.27494536076588777</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
@@ -12898,15 +12915,15 @@
         <v>-1</v>
       </c>
       <c r="B256">
-        <v>21354</v>
+        <v>20225</v>
       </c>
       <c r="D256">
         <f t="shared" si="6"/>
-        <v>8.145904541015625E-2</v>
+        <v>7.7152252197265625E-2</v>
       </c>
       <c r="E256">
         <f t="shared" si="7"/>
-        <v>-0.29470100971563901</v>
+        <v>-0.28516613631214105</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
@@ -12914,15 +12931,15 @@
         <v>0</v>
       </c>
       <c r="B257">
-        <v>23563</v>
+        <v>20578</v>
       </c>
       <c r="D257">
         <f t="shared" si="6"/>
-        <v>8.9885711669921875E-2</v>
+        <v>7.849884033203125E-2</v>
       </c>
       <c r="E257">
         <f t="shared" si="7"/>
-        <v>-0.31242155562814239</v>
+        <v>-0.28818375326209034</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
@@ -12930,15 +12947,15 @@
         <v>1</v>
       </c>
       <c r="B258">
-        <v>23945</v>
+        <v>20282</v>
       </c>
       <c r="D258">
         <f t="shared" si="6"/>
-        <v>9.1342926025390625E-2</v>
+        <v>7.736968994140625E-2</v>
       </c>
       <c r="E258">
         <f t="shared" si="7"/>
-        <v>-0.31536722359417368</v>
+        <v>-0.2856556803926012</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
@@ -12946,15 +12963,15 @@
         <v>2</v>
       </c>
       <c r="B259">
-        <v>22105</v>
+        <v>18527</v>
       </c>
       <c r="D259">
         <f t="shared" ref="D259:D322" si="8">B259/L$5</f>
-        <v>8.4323883056640625E-2</v>
+        <v>7.0674896240234375E-2</v>
       </c>
       <c r="E259">
         <f t="shared" ref="E259:E322" si="9">IF(D259&lt;&gt;0,D259*LOG(D259,2),0)</f>
-        <v>-0.30086043761648262</v>
+        <v>-0.27016598081886584</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
@@ -12962,15 +12979,15 @@
         <v>3</v>
       </c>
       <c r="B260">
-        <v>18194</v>
+        <v>16437</v>
       </c>
       <c r="D260">
         <f t="shared" si="8"/>
-        <v>6.940460205078125E-2</v>
+        <v>6.2702178955078125E-2</v>
       </c>
       <c r="E260">
         <f t="shared" si="9"/>
-        <v>-0.2671261579235491</v>
+        <v>-0.2505165619757117</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
@@ -12978,15 +12995,15 @@
         <v>4</v>
       </c>
       <c r="B261">
-        <v>14110</v>
+        <v>13331</v>
       </c>
       <c r="D261">
         <f t="shared" si="8"/>
-        <v>5.382537841796875E-2</v>
+        <v>5.0853729248046875E-2</v>
       </c>
       <c r="E261">
         <f t="shared" si="9"/>
-        <v>-0.22690463071743747</v>
+        <v>-0.21854403442078149</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
@@ -12994,15 +13011,15 @@
         <v>5</v>
       </c>
       <c r="B262">
-        <v>10463</v>
+        <v>10511</v>
       </c>
       <c r="D262">
         <f t="shared" si="8"/>
-        <v>3.9913177490234375E-2</v>
+        <v>4.0096282958984375E-2</v>
       </c>
       <c r="E262">
         <f t="shared" si="9"/>
-        <v>-0.18547617870680291</v>
+        <v>-0.18606229781291722</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
@@ -13010,15 +13027,15 @@
         <v>6</v>
       </c>
       <c r="B263">
-        <v>7711</v>
+        <v>8065</v>
       </c>
       <c r="D263">
         <f t="shared" si="8"/>
-        <v>2.9415130615234375E-2</v>
+        <v>3.0765533447265625E-2</v>
       </c>
       <c r="E263">
         <f t="shared" si="9"/>
-        <v>-0.14964352771694905</v>
+        <v>-0.15452115872376695</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
@@ -13026,15 +13043,15 @@
         <v>7</v>
       </c>
       <c r="B264">
-        <v>5899</v>
+        <v>6136</v>
       </c>
       <c r="D264">
         <f t="shared" si="8"/>
-        <v>2.2502899169921875E-2</v>
+        <v>2.3406982421875E-2</v>
       </c>
       <c r="E264">
         <f t="shared" si="9"/>
-        <v>-0.12317513870660816</v>
+        <v>-0.1267936864418106</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
@@ -13042,15 +13059,15 @@
         <v>8</v>
       </c>
       <c r="B265">
-        <v>4513</v>
+        <v>4671</v>
       </c>
       <c r="D265">
         <f t="shared" si="8"/>
-        <v>1.7215728759765625E-2</v>
+        <v>1.7818450927734375E-2</v>
       </c>
       <c r="E265">
         <f t="shared" si="9"/>
-        <v>-0.10088639027298753</v>
+        <v>-0.10353382883492775</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
@@ -13058,15 +13075,15 @@
         <v>9</v>
       </c>
       <c r="B266">
-        <v>3611</v>
+        <v>3514</v>
       </c>
       <c r="D266">
         <f t="shared" si="8"/>
-        <v>1.3774871826171875E-2</v>
+        <v>1.340484619140625E-2</v>
       </c>
       <c r="E266">
         <f t="shared" si="9"/>
-        <v>-8.5153740892145016E-2</v>
+        <v>-8.3392909070230739E-2</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
@@ -13074,15 +13091,15 @@
         <v>10</v>
       </c>
       <c r="B267">
-        <v>2785</v>
+        <v>2853</v>
       </c>
       <c r="D267">
         <f t="shared" si="8"/>
-        <v>1.0623931884765625E-2</v>
+        <v>1.0883331298828125E-2</v>
       </c>
       <c r="E267">
         <f t="shared" si="9"/>
-        <v>-6.9656217231547204E-2</v>
+        <v>-7.0978213187779832E-2</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
@@ -13090,15 +13107,15 @@
         <v>11</v>
       </c>
       <c r="B268">
-        <v>2303</v>
+        <v>2103</v>
       </c>
       <c r="D268">
         <f t="shared" si="8"/>
-        <v>8.785247802734375E-3</v>
+        <v>8.022308349609375E-3</v>
       </c>
       <c r="E268">
         <f t="shared" si="9"/>
-        <v>-6.000940362392073E-2</v>
+        <v>-5.5849440451275136E-2</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
@@ -13106,15 +13123,15 @@
         <v>12</v>
       </c>
       <c r="B269">
-        <v>1868</v>
+        <v>1707</v>
       </c>
       <c r="D269">
         <f t="shared" si="8"/>
-        <v>7.1258544921875E-3</v>
+        <v>6.511688232421875E-3</v>
       </c>
       <c r="E269">
         <f t="shared" si="9"/>
-        <v>-5.0826733834161197E-2</v>
+        <v>-4.729278101139698E-2</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
@@ -13122,15 +13139,15 @@
         <v>13</v>
       </c>
       <c r="B270">
-        <v>1608</v>
+        <v>1421</v>
       </c>
       <c r="D270">
         <f t="shared" si="8"/>
-        <v>6.134033203125E-3</v>
+        <v>5.420684814453125E-3</v>
       </c>
       <c r="E270">
         <f t="shared" si="9"/>
-        <v>-4.5078692934357768E-2</v>
+        <v>-4.0803170461410555E-2</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
@@ -13138,15 +13155,15 @@
         <v>14</v>
       </c>
       <c r="B271">
-        <v>1399</v>
+        <v>1173</v>
       </c>
       <c r="D271">
         <f t="shared" si="8"/>
-        <v>5.336761474609375E-3</v>
+        <v>4.474639892578125E-3</v>
       </c>
       <c r="E271">
         <f t="shared" si="9"/>
-        <v>-4.0291587197176022E-2</v>
+        <v>-3.4920146558428046E-2</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
@@ -13154,15 +13171,15 @@
         <v>15</v>
       </c>
       <c r="B272">
-        <v>1266</v>
+        <v>998</v>
       </c>
       <c r="D272">
         <f t="shared" si="8"/>
-        <v>4.82940673828125E-3</v>
+        <v>3.80706787109375E-3</v>
       </c>
       <c r="E272">
         <f t="shared" si="9"/>
-        <v>-3.7157157520995028E-2</v>
+        <v>-3.0597800394719751E-2</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
@@ -13170,15 +13187,15 @@
         <v>16</v>
       </c>
       <c r="B273">
-        <v>1036</v>
+        <v>878</v>
       </c>
       <c r="D273">
         <f t="shared" si="8"/>
-        <v>3.9520263671875E-3</v>
+        <v>3.34930419921875E-3</v>
       </c>
       <c r="E273">
         <f t="shared" si="9"/>
-        <v>-3.1549784141375464E-2</v>
+        <v>-2.7537720795699903E-2</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
@@ -13186,15 +13203,15 @@
         <v>17</v>
       </c>
       <c r="B274">
-        <v>845</v>
+        <v>756</v>
       </c>
       <c r="D274">
         <f t="shared" si="8"/>
-        <v>3.223419189453125E-3</v>
+        <v>2.8839111328125E-3</v>
       </c>
       <c r="E274">
         <f t="shared" si="9"/>
-        <v>-2.6680861038824971E-2</v>
+        <v>-2.4333743008761861E-2</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
@@ -13202,15 +13219,15 @@
         <v>18</v>
       </c>
       <c r="B275">
-        <v>760</v>
+        <v>670</v>
       </c>
       <c r="D275">
         <f t="shared" si="8"/>
-        <v>2.899169921875E-3</v>
+        <v>2.55584716796875E-3</v>
       </c>
       <c r="E275">
         <f t="shared" si="9"/>
-        <v>-2.4440421057390131E-2</v>
+        <v>-2.2010911631846469E-2</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
@@ -13218,15 +13235,15 @@
         <v>19</v>
       </c>
       <c r="B276">
-        <v>665</v>
+        <v>553</v>
       </c>
       <c r="D276">
         <f t="shared" si="8"/>
-        <v>2.536773681640625E-3</v>
+        <v>2.109527587890625E-3</v>
       </c>
       <c r="E276">
         <f t="shared" si="9"/>
-        <v>-2.1874065388838244E-2</v>
+        <v>-1.8751304528656795E-2</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
@@ -13234,15 +13251,15 @@
         <v>20</v>
       </c>
       <c r="B277">
-        <v>623</v>
+        <v>544</v>
       </c>
       <c r="D277">
         <f t="shared" si="8"/>
-        <v>2.376556396484375E-3</v>
+        <v>2.0751953125E-3</v>
       </c>
       <c r="E277">
         <f t="shared" si="9"/>
-        <v>-2.0716232132209956E-2</v>
+        <v>-1.8495255334319366E-2</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
@@ -13250,15 +13267,15 @@
         <v>21</v>
       </c>
       <c r="B278">
-        <v>553</v>
+        <v>476</v>
       </c>
       <c r="D278">
         <f t="shared" si="8"/>
-        <v>2.109527587890625E-3</v>
+        <v>1.8157958984375E-3</v>
       </c>
       <c r="E278">
         <f t="shared" si="9"/>
-        <v>-1.8751304528656795E-2</v>
+        <v>-1.6533152559911418E-2</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
@@ -13266,15 +13283,15 @@
         <v>22</v>
       </c>
       <c r="B279">
-        <v>499</v>
+        <v>417</v>
       </c>
       <c r="D279">
         <f t="shared" si="8"/>
-        <v>1.903533935546875E-3</v>
+        <v>1.590728759765625E-3</v>
       </c>
       <c r="E279">
         <f t="shared" si="9"/>
-        <v>-1.7202434132906751E-2</v>
+        <v>-1.478756793927603E-2</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
@@ -13282,15 +13299,15 @@
         <v>23</v>
       </c>
       <c r="B280">
-        <v>484</v>
+        <v>373</v>
       </c>
       <c r="D280">
         <f t="shared" si="8"/>
-        <v>1.8463134765625E-3</v>
+        <v>1.422882080078125E-3</v>
       </c>
       <c r="E280">
         <f t="shared" si="9"/>
-        <v>-1.6766625187527071E-2</v>
+        <v>-1.3456150554827868E-2</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
@@ -13298,15 +13315,15 @@
         <v>24</v>
       </c>
       <c r="B281">
-        <v>441</v>
+        <v>365</v>
       </c>
       <c r="D281">
         <f t="shared" si="8"/>
-        <v>1.682281494140625E-3</v>
+        <v>1.392364501953125E-3</v>
       </c>
       <c r="E281">
         <f t="shared" si="9"/>
-        <v>-1.5502838261066944E-2</v>
+        <v>-1.3211098790645243E-2</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
@@ -13314,15 +13331,15 @@
         <v>25</v>
       </c>
       <c r="B282">
-        <v>374</v>
+        <v>299</v>
       </c>
       <c r="D282">
         <f t="shared" si="8"/>
-        <v>1.42669677734375E-3</v>
+        <v>1.140594482421875E-3</v>
       </c>
       <c r="E282">
         <f t="shared" si="9"/>
-        <v>-1.348671520996866E-2</v>
+        <v>-1.115044975057513E-2</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
@@ -13330,15 +13347,15 @@
         <v>26</v>
       </c>
       <c r="B283">
-        <v>313</v>
+        <v>267</v>
       </c>
       <c r="D283">
         <f t="shared" si="8"/>
-        <v>1.194000244140625E-3</v>
+        <v>1.018524169921875E-3</v>
       </c>
       <c r="E283">
         <f t="shared" si="9"/>
-        <v>-1.1593719867363321E-2</v>
+        <v>-1.0123421425779048E-2</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
@@ -13346,15 +13363,15 @@
         <v>27</v>
       </c>
       <c r="B284">
-        <v>315</v>
+        <v>243</v>
       </c>
       <c r="D284">
         <f t="shared" si="8"/>
-        <v>1.201629638671875E-3</v>
+        <v>9.26971435546875E-4</v>
       </c>
       <c r="E284">
         <f t="shared" si="9"/>
-        <v>-1.1656759163696316E-2</v>
+        <v>-9.3394110169364754E-3</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
@@ -13362,15 +13379,15 @@
         <v>28</v>
       </c>
       <c r="B285">
-        <v>329</v>
+        <v>214</v>
       </c>
       <c r="D285">
         <f t="shared" si="8"/>
-        <v>1.255035400390625E-3</v>
+        <v>8.1634521484375E-4</v>
       </c>
       <c r="E285">
         <f t="shared" si="9"/>
-        <v>-1.2096101754917548E-2</v>
+        <v>-8.374504336968059E-3</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
@@ -13378,15 +13395,15 @@
         <v>29</v>
       </c>
       <c r="B286">
-        <v>250</v>
+        <v>195</v>
       </c>
       <c r="D286">
         <f t="shared" si="8"/>
-        <v>9.5367431640625E-4</v>
+        <v>7.43865966796875E-4</v>
       </c>
       <c r="E286">
         <f t="shared" si="9"/>
-        <v>-9.5693738129977342E-3</v>
+        <v>-7.7307532837632212E-3</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
@@ -13394,15 +13411,15 @@
         <v>30</v>
       </c>
       <c r="B287">
-        <v>230</v>
+        <v>189</v>
       </c>
       <c r="D287">
         <f t="shared" si="8"/>
-        <v>8.7738037109375E-4</v>
+        <v>7.20977783203125E-4</v>
       </c>
       <c r="E287">
         <f t="shared" si="9"/>
-        <v>-8.9093677073776006E-3</v>
+        <v>-7.5253913185967143E-3</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
@@ -13410,15 +13427,15 @@
         <v>31</v>
       </c>
       <c r="B288">
-        <v>230</v>
+        <v>192</v>
       </c>
       <c r="D288">
         <f t="shared" si="8"/>
-        <v>8.7738037109375E-4</v>
+        <v>7.32421875E-4</v>
       </c>
       <c r="E288">
         <f t="shared" si="9"/>
-        <v>-8.9093677073776006E-3</v>
+        <v>-7.6282012934171216E-3</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
@@ -13426,15 +13443,15 @@
         <v>32</v>
       </c>
       <c r="B289">
-        <v>201</v>
+        <v>159</v>
       </c>
       <c r="D289">
         <f t="shared" si="8"/>
-        <v>7.66754150390625E-4</v>
+        <v>6.06536865234375E-4</v>
       </c>
       <c r="E289">
         <f t="shared" si="9"/>
-        <v>-7.9350990679665969E-3</v>
+        <v>-6.4821304706946855E-3</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
@@ -13442,15 +13459,15 @@
         <v>33</v>
       </c>
       <c r="B290">
-        <v>217</v>
+        <v>162</v>
       </c>
       <c r="D290">
         <f t="shared" si="8"/>
-        <v>8.27789306640625E-4</v>
+        <v>6.1798095703125E-4</v>
       </c>
       <c r="E290">
         <f t="shared" si="9"/>
-        <v>-8.4752784063703464E-3</v>
+        <v>-6.5877696973140366E-3</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
@@ -13458,15 +13475,15 @@
         <v>34</v>
       </c>
       <c r="B291">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="D291">
         <f t="shared" si="8"/>
-        <v>6.67572021484375E-4</v>
+        <v>5.7220458984375E-4</v>
       </c>
       <c r="E291">
         <f t="shared" si="9"/>
-        <v>-7.0420763222860056E-3</v>
+        <v>-6.1633193833374698E-3</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
@@ -13474,15 +13491,15 @@
         <v>35</v>
       </c>
       <c r="B292">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="D292">
         <f t="shared" si="8"/>
-        <v>5.76019287109375E-4</v>
+        <v>3.85284423828125E-4</v>
       </c>
       <c r="E292">
         <f t="shared" si="9"/>
-        <v>-6.1988864302135972E-3</v>
+        <v>-4.3698144540484183E-3</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
@@ -13490,15 +13507,15 @@
         <v>36</v>
       </c>
       <c r="B293">
-        <v>148</v>
+        <v>116</v>
       </c>
       <c r="D293">
         <f t="shared" si="8"/>
-        <v>5.645751953125E-4</v>
+        <v>4.425048828125E-4</v>
       </c>
       <c r="E293">
         <f t="shared" si="9"/>
-        <v>-6.0920749736286754E-3</v>
+        <v>-4.9303978140457219E-3</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
@@ -13506,15 +13523,15 @@
         <v>37</v>
       </c>
       <c r="B294">
-        <v>149</v>
+        <v>120</v>
       </c>
       <c r="D294">
         <f t="shared" si="8"/>
-        <v>5.68389892578125E-4</v>
+        <v>4.57763671875E-4</v>
       </c>
       <c r="E294">
         <f t="shared" si="9"/>
-        <v>-6.1277156465573803E-3</v>
+        <v>-5.0780224934653395E-3</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
@@ -13522,15 +13539,15 @@
         <v>38</v>
       </c>
       <c r="B295">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="D295">
         <f t="shared" si="8"/>
-        <v>4.15802001953125E-4</v>
+        <v>3.2806396484375E-4</v>
       </c>
       <c r="E295">
         <f t="shared" si="9"/>
-        <v>-4.6702114433262451E-3</v>
+        <v>-3.7969254726242813E-3</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
@@ -13538,15 +13555,15 @@
         <v>39</v>
       </c>
       <c r="B296">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="D296">
         <f t="shared" si="8"/>
-        <v>4.53948974609375E-4</v>
+        <v>3.1280517578125E-4</v>
       </c>
       <c r="E296">
         <f t="shared" si="9"/>
-        <v>-5.0411860891966045E-3</v>
+        <v>-3.6418179917195024E-3</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
@@ -13554,15 +13571,15 @@
         <v>40</v>
       </c>
       <c r="B297">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D297">
         <f t="shared" si="8"/>
-        <v>3.5858154296875E-4</v>
+        <v>3.47137451171875E-4</v>
       </c>
       <c r="E297">
         <f t="shared" si="9"/>
-        <v>-4.1041131894771652E-3</v>
+        <v>-3.9893748769451853E-3</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
@@ -13570,15 +13587,15 @@
         <v>41</v>
       </c>
       <c r="B298">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="D298">
         <f t="shared" si="8"/>
-        <v>3.47137451171875E-4</v>
+        <v>2.47955322265625E-4</v>
       </c>
       <c r="E298">
         <f t="shared" si="9"/>
-        <v>-3.9893748769451853E-3</v>
+        <v>-2.9699176488996522E-3</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
@@ -13586,15 +13603,15 @@
         <v>42</v>
       </c>
       <c r="B299">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="D299">
         <f t="shared" si="8"/>
-        <v>3.814697265625E-4</v>
+        <v>2.47955322265625E-4</v>
       </c>
       <c r="E299">
         <f t="shared" si="9"/>
-        <v>-4.3320250740910629E-3</v>
+        <v>-2.9699176488996522E-3</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
@@ -13602,15 +13619,15 @@
         <v>43</v>
       </c>
       <c r="B300">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="D300">
         <f t="shared" si="8"/>
-        <v>2.86102294921875E-4</v>
+        <v>2.5177001953125E-4</v>
       </c>
       <c r="E300">
         <f t="shared" si="9"/>
-        <v>-3.3677619865906108E-3</v>
+        <v>-3.0100631260770497E-3</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
@@ -13618,15 +13635,15 @@
         <v>44</v>
       </c>
       <c r="B301">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="D301">
         <f t="shared" si="8"/>
-        <v>2.8228759765625E-4</v>
+        <v>1.983642578125E-4</v>
       </c>
       <c r="E301">
         <f t="shared" si="9"/>
-        <v>-3.3283250844705877E-3</v>
+        <v>-2.4397931467310457E-3</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
@@ -13634,15 +13651,15 @@
         <v>45</v>
       </c>
       <c r="B302">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="D302">
         <f t="shared" si="8"/>
-        <v>2.47955322265625E-4</v>
+        <v>1.9073486328125E-4</v>
       </c>
       <c r="E302">
         <f t="shared" si="9"/>
-        <v>-2.9699176488996522E-3</v>
+        <v>-2.356747400326781E-3</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
@@ -13650,15 +13667,15 @@
         <v>46</v>
       </c>
       <c r="B303">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="D303">
         <f t="shared" si="8"/>
-        <v>2.8228759765625E-4</v>
+        <v>1.52587890625E-4</v>
       </c>
       <c r="E303">
         <f t="shared" si="9"/>
-        <v>-3.3283250844705877E-3</v>
+        <v>-1.9345202491932126E-3</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
@@ -13666,15 +13683,15 @@
         <v>47</v>
       </c>
       <c r="B304">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="D304">
         <f t="shared" si="8"/>
-        <v>2.44140625E-4</v>
+        <v>1.64031982421875E-4</v>
       </c>
       <c r="E304">
         <f t="shared" si="9"/>
-        <v>-2.9296875E-3</v>
+        <v>-2.0624947187340157E-3</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
@@ -13682,15 +13699,15 @@
         <v>48</v>
       </c>
       <c r="B305">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="D305">
         <f t="shared" si="8"/>
-        <v>3.1280517578125E-4</v>
+        <v>1.86920166015625E-4</v>
       </c>
       <c r="E305">
         <f t="shared" si="9"/>
-        <v>-3.6418179917195024E-3</v>
+        <v>-2.315060492089671E-3</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
@@ -13698,15 +13715,15 @@
         <v>49</v>
       </c>
       <c r="B306">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="D306">
         <f t="shared" si="8"/>
-        <v>2.0599365234375E-4</v>
+        <v>1.10626220703125E-4</v>
       </c>
       <c r="E306">
         <f t="shared" si="9"/>
-        <v>-2.5224154467894467E-3</v>
+        <v>-1.4538518949176803E-3</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
@@ -13714,15 +13731,15 @@
         <v>50</v>
       </c>
       <c r="B307">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="D307">
         <f t="shared" si="8"/>
-        <v>1.94549560546875E-4</v>
+        <v>1.2969970703125E-4</v>
       </c>
       <c r="E307">
         <f t="shared" si="9"/>
-        <v>-2.3983242323282385E-3</v>
+        <v>-1.6747522865199604E-3</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
@@ -13730,15 +13747,15 @@
         <v>51</v>
       </c>
       <c r="B308">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="D308">
         <f t="shared" si="8"/>
-        <v>2.44140625E-4</v>
+        <v>6.866455078125E-5</v>
       </c>
       <c r="E308">
         <f t="shared" si="9"/>
-        <v>-2.9296875E-3</v>
+        <v>-9.4963588704696051E-4</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
@@ -13746,15 +13763,15 @@
         <v>52</v>
       </c>
       <c r="B309">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="D309">
         <f t="shared" si="8"/>
-        <v>2.13623046875E-4</v>
+        <v>1.33514404296875E-4</v>
       </c>
       <c r="E309">
         <f t="shared" si="9"/>
-        <v>-2.6046299910155264E-3</v>
+        <v>-1.7184261108662651E-3</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
@@ -13762,15 +13779,15 @@
         <v>53</v>
       </c>
       <c r="B310">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D310">
         <f t="shared" si="8"/>
-        <v>1.41143798828125E-4</v>
+        <v>9.5367431640625E-5</v>
       </c>
       <c r="E310">
         <f t="shared" si="9"/>
-        <v>-1.8053063410634188E-3</v>
+        <v>-1.2737411318040155E-3</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
@@ -13778,15 +13795,15 @@
         <v>54</v>
       </c>
       <c r="B311">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="D311">
         <f t="shared" si="8"/>
-        <v>1.4495849609375E-4</v>
+        <v>8.7738037109375E-5</v>
       </c>
       <c r="E311">
         <f t="shared" si="9"/>
-        <v>-1.8485212497297049E-3</v>
+        <v>-1.1823962212016629E-3</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
@@ -13794,15 +13811,15 @@
         <v>55</v>
       </c>
       <c r="B312">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D312">
         <f t="shared" si="8"/>
-        <v>1.25885009765625E-4</v>
+        <v>8.7738037109375E-5</v>
       </c>
       <c r="E312">
         <f t="shared" si="9"/>
-        <v>-1.6309165728041499E-3</v>
+        <v>-1.1823962212016629E-3</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
@@ -13810,15 +13827,15 @@
         <v>56</v>
       </c>
       <c r="B313">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D313">
         <f t="shared" si="8"/>
-        <v>1.1444091796875E-4</v>
+        <v>4.1961669921875E-5</v>
       </c>
       <c r="E313">
         <f t="shared" si="9"/>
-        <v>-1.4983874593038347E-3</v>
+        <v>-6.1014653089519401E-4</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
@@ -13826,15 +13843,15 @@
         <v>57</v>
       </c>
       <c r="B314">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D314">
         <f t="shared" si="8"/>
-        <v>1.2969970703125E-4</v>
+        <v>9.5367431640625E-5</v>
       </c>
       <c r="E314">
         <f t="shared" si="9"/>
-        <v>-1.6747522865199604E-3</v>
+        <v>-1.2737411318040155E-3</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
@@ -13842,15 +13859,15 @@
         <v>58</v>
       </c>
       <c r="B315">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D315">
         <f t="shared" si="8"/>
-        <v>1.220703125E-4</v>
+        <v>7.2479248046875E-5</v>
       </c>
       <c r="E315">
         <f t="shared" si="9"/>
-        <v>-1.5869140625E-3</v>
+        <v>-9.9673987291172745E-4</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
@@ -13858,15 +13875,15 @@
         <v>59</v>
       </c>
       <c r="B316">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D316">
         <f t="shared" si="8"/>
-        <v>7.62939453125E-5</v>
+        <v>4.9591064453125E-5</v>
       </c>
       <c r="E316">
         <f t="shared" si="9"/>
-        <v>-1.0435540699091062E-3</v>
+        <v>-7.0913041558901143E-4</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
@@ -13874,15 +13891,15 @@
         <v>60</v>
       </c>
       <c r="B317">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D317">
         <f t="shared" si="8"/>
-        <v>8.7738037109375E-5</v>
+        <v>4.57763671875E-5</v>
       </c>
       <c r="E317">
         <f t="shared" si="9"/>
-        <v>-1.1823962212016629E-3</v>
+        <v>-6.598680495885701E-4</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
@@ -13890,15 +13907,15 @@
         <v>61</v>
       </c>
       <c r="B318">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="D318">
         <f t="shared" si="8"/>
-        <v>9.1552734375E-5</v>
+        <v>1.9073486328125E-5</v>
       </c>
       <c r="E318">
         <f t="shared" si="9"/>
-        <v>-1.2281833648021402E-3</v>
+        <v>-2.9903549013352655E-4</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
@@ -13906,15 +13923,15 @@
         <v>62</v>
       </c>
       <c r="B319">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D319">
         <f t="shared" si="8"/>
-        <v>6.4849853515625E-5</v>
+        <v>1.9073486328125E-5</v>
       </c>
       <c r="E319">
         <f t="shared" si="9"/>
-        <v>-9.0222599677560529E-4</v>
+        <v>-2.9903549013352655E-4</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
@@ -13922,15 +13939,15 @@
         <v>63</v>
       </c>
       <c r="B320">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D320">
         <f t="shared" si="8"/>
-        <v>4.9591064453125E-5</v>
+        <v>3.0517578125E-5</v>
       </c>
       <c r="E320">
         <f t="shared" si="9"/>
-        <v>-7.0913041558901143E-4</v>
+        <v>-4.57763671875E-4</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
@@ -13938,15 +13955,15 @@
         <v>64</v>
       </c>
       <c r="B321">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D321">
         <f t="shared" si="8"/>
-        <v>7.2479248046875E-5</v>
+        <v>1.52587890625E-5</v>
       </c>
       <c r="E321">
         <f t="shared" si="9"/>
-        <v>-9.9673987291172745E-4</v>
+        <v>-2.44140625E-4</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
@@ -13954,15 +13971,15 @@
         <v>65</v>
       </c>
       <c r="B322">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D322">
         <f t="shared" si="8"/>
-        <v>3.0517578125E-5</v>
+        <v>3.814697265625E-5</v>
       </c>
       <c r="E322">
         <f t="shared" si="9"/>
-        <v>-4.57763671875E-4</v>
+        <v>-5.599240076108031E-4</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
@@ -13970,15 +13987,15 @@
         <v>66</v>
       </c>
       <c r="B323">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D323">
         <f t="shared" ref="D323:D386" si="10">B323/L$5</f>
-        <v>5.7220458984375E-5</v>
+        <v>3.0517578125E-5</v>
       </c>
       <c r="E323">
         <f t="shared" ref="E323:E386" si="11">IF(D323&lt;&gt;0,D323*LOG(D323,2),0)</f>
-        <v>-8.0641418863629233E-4</v>
+        <v>-4.57763671875E-4</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.25">
@@ -13986,15 +14003,15 @@
         <v>67</v>
       </c>
       <c r="B324">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D324">
         <f t="shared" si="10"/>
-        <v>4.1961669921875E-5</v>
+        <v>1.1444091796875E-5</v>
       </c>
       <c r="E324">
         <f t="shared" si="11"/>
-        <v>-6.1014653089519401E-4</v>
+        <v>-1.8785519599089255E-4</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
@@ -14002,15 +14019,15 @@
         <v>68</v>
       </c>
       <c r="B325">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D325">
         <f t="shared" si="10"/>
-        <v>6.103515625E-5</v>
+        <v>7.62939453125E-6</v>
       </c>
       <c r="E325">
         <f t="shared" si="11"/>
-        <v>-8.544921875E-4</v>
+        <v>-1.2969970703125E-4</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
@@ -14018,15 +14035,15 @@
         <v>69</v>
       </c>
       <c r="B326">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D326">
         <f t="shared" si="10"/>
-        <v>5.7220458984375E-5</v>
+        <v>1.1444091796875E-5</v>
       </c>
       <c r="E326">
         <f t="shared" si="11"/>
-        <v>-8.0641418863629233E-4</v>
+        <v>-1.8785519599089255E-4</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
@@ -14034,15 +14051,15 @@
         <v>70</v>
       </c>
       <c r="B327">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D327">
         <f t="shared" si="10"/>
-        <v>1.52587890625E-5</v>
+        <v>0</v>
       </c>
       <c r="E327">
         <f t="shared" si="11"/>
-        <v>-2.44140625E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
@@ -14050,15 +14067,15 @@
         <v>71</v>
       </c>
       <c r="B328">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D328">
         <f t="shared" si="10"/>
-        <v>4.9591064453125E-5</v>
+        <v>1.52587890625E-5</v>
       </c>
       <c r="E328">
         <f t="shared" si="11"/>
-        <v>-7.0913041558901143E-4</v>
+        <v>-2.44140625E-4</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
@@ -14066,15 +14083,15 @@
         <v>72</v>
       </c>
       <c r="B329">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D329">
         <f t="shared" si="10"/>
-        <v>2.288818359375E-5</v>
+        <v>3.814697265625E-6</v>
       </c>
       <c r="E329">
         <f t="shared" si="11"/>
-        <v>-3.5282220838803505E-4</v>
+        <v>-6.866455078125E-5</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.25">
@@ -14082,15 +14099,15 @@
         <v>73</v>
       </c>
       <c r="B330">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D330">
         <f t="shared" si="10"/>
-        <v>1.52587890625E-5</v>
+        <v>1.1444091796875E-5</v>
       </c>
       <c r="E330">
         <f t="shared" si="11"/>
-        <v>-2.44140625E-4</v>
+        <v>-1.8785519599089255E-4</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.25">
@@ -14098,15 +14115,15 @@
         <v>74</v>
       </c>
       <c r="B331">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D331">
         <f t="shared" si="10"/>
-        <v>3.0517578125E-5</v>
+        <v>1.1444091796875E-5</v>
       </c>
       <c r="E331">
         <f t="shared" si="11"/>
-        <v>-4.57763671875E-4</v>
+        <v>-1.8785519599089255E-4</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
@@ -14114,15 +14131,15 @@
         <v>75</v>
       </c>
       <c r="B332">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D332">
         <f t="shared" si="10"/>
-        <v>2.288818359375E-5</v>
+        <v>0</v>
       </c>
       <c r="E332">
         <f t="shared" si="11"/>
-        <v>-3.5282220838803505E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
@@ -14130,15 +14147,15 @@
         <v>76</v>
       </c>
       <c r="B333">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D333">
         <f t="shared" si="10"/>
-        <v>1.52587890625E-5</v>
+        <v>3.814697265625E-6</v>
       </c>
       <c r="E333">
         <f t="shared" si="11"/>
-        <v>-2.44140625E-4</v>
+        <v>-6.866455078125E-5</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
@@ -14146,15 +14163,15 @@
         <v>77</v>
       </c>
       <c r="B334">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D334">
         <f t="shared" si="10"/>
-        <v>7.62939453125E-6</v>
+        <v>3.814697265625E-6</v>
       </c>
       <c r="E334">
         <f t="shared" si="11"/>
-        <v>-1.2969970703125E-4</v>
+        <v>-6.866455078125E-5</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.25">
@@ -14162,15 +14179,15 @@
         <v>78</v>
       </c>
       <c r="B335">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D335">
         <f t="shared" si="10"/>
-        <v>3.0517578125E-5</v>
+        <v>7.62939453125E-6</v>
       </c>
       <c r="E335">
         <f t="shared" si="11"/>
-        <v>-4.57763671875E-4</v>
+        <v>-1.2969970703125E-4</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.25">
@@ -14178,15 +14195,15 @@
         <v>79</v>
       </c>
       <c r="B336">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D336">
         <f t="shared" si="10"/>
-        <v>2.288818359375E-5</v>
+        <v>3.814697265625E-6</v>
       </c>
       <c r="E336">
         <f t="shared" si="11"/>
-        <v>-3.5282220838803505E-4</v>
+        <v>-6.866455078125E-5</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
@@ -14194,15 +14211,15 @@
         <v>80</v>
       </c>
       <c r="B337">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D337">
         <f t="shared" si="10"/>
-        <v>7.62939453125E-6</v>
+        <v>0</v>
       </c>
       <c r="E337">
         <f t="shared" si="11"/>
-        <v>-1.2969970703125E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
@@ -14210,15 +14227,15 @@
         <v>81</v>
       </c>
       <c r="B338">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D338">
         <f t="shared" si="10"/>
-        <v>7.62939453125E-6</v>
+        <v>1.1444091796875E-5</v>
       </c>
       <c r="E338">
         <f t="shared" si="11"/>
-        <v>-1.2969970703125E-4</v>
+        <v>-1.8785519599089255E-4</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
@@ -14242,15 +14259,15 @@
         <v>83</v>
       </c>
       <c r="B340">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D340">
         <f t="shared" si="10"/>
-        <v>1.1444091796875E-5</v>
+        <v>7.62939453125E-6</v>
       </c>
       <c r="E340">
         <f t="shared" si="11"/>
-        <v>-1.8785519599089255E-4</v>
+        <v>-1.2969970703125E-4</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
@@ -14258,15 +14275,15 @@
         <v>84</v>
       </c>
       <c r="B341">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D341">
         <f t="shared" si="10"/>
-        <v>7.62939453125E-6</v>
+        <v>0</v>
       </c>
       <c r="E341">
         <f t="shared" si="11"/>
-        <v>-1.2969970703125E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
@@ -14274,15 +14291,15 @@
         <v>85</v>
       </c>
       <c r="B342">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D342">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>3.814697265625E-6</v>
       </c>
       <c r="E342">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>-6.866455078125E-5</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
@@ -14290,15 +14307,15 @@
         <v>86</v>
       </c>
       <c r="B343">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D343">
         <f t="shared" si="10"/>
-        <v>3.814697265625E-6</v>
+        <v>0</v>
       </c>
       <c r="E343">
         <f t="shared" si="11"/>
-        <v>-6.866455078125E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
@@ -14306,15 +14323,15 @@
         <v>87</v>
       </c>
       <c r="B344">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D344">
         <f t="shared" si="10"/>
-        <v>2.288818359375E-5</v>
+        <v>0</v>
       </c>
       <c r="E344">
         <f t="shared" si="11"/>
-        <v>-3.5282220838803505E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
@@ -14322,15 +14339,15 @@
         <v>88</v>
       </c>
       <c r="B345">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D345">
         <f t="shared" si="10"/>
-        <v>1.52587890625E-5</v>
+        <v>0</v>
       </c>
       <c r="E345">
         <f t="shared" si="11"/>
-        <v>-2.44140625E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
@@ -14338,15 +14355,15 @@
         <v>89</v>
       </c>
       <c r="B346">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D346">
         <f t="shared" si="10"/>
-        <v>1.52587890625E-5</v>
+        <v>0</v>
       </c>
       <c r="E346">
         <f t="shared" si="11"/>
-        <v>-2.44140625E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
@@ -14354,15 +14371,15 @@
         <v>90</v>
       </c>
       <c r="B347">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D347">
         <f t="shared" si="10"/>
-        <v>3.814697265625E-6</v>
+        <v>0</v>
       </c>
       <c r="E347">
         <f t="shared" si="11"/>
-        <v>-6.866455078125E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
@@ -14386,15 +14403,15 @@
         <v>92</v>
       </c>
       <c r="B349">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D349">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>3.814697265625E-6</v>
       </c>
       <c r="E349">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>-6.866455078125E-5</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
@@ -14530,15 +14547,15 @@
         <v>101</v>
       </c>
       <c r="B358">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D358">
         <f t="shared" si="10"/>
-        <v>3.814697265625E-6</v>
+        <v>0</v>
       </c>
       <c r="E358">
         <f t="shared" si="11"/>
-        <v>-6.866455078125E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.25">
@@ -17001,29 +17018,21 @@
       <c r="A513" t="s">
         <v>0</v>
       </c>
-      <c r="D513">
-        <f t="shared" ref="D513:D520" si="16">B513/L$5</f>
-        <v>0</v>
-      </c>
-      <c r="E513">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="514" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A514">
         <v>0</v>
       </c>
       <c r="B514">
-        <v>193</v>
+        <v>164</v>
       </c>
       <c r="D514">
-        <f t="shared" si="16"/>
-        <v>7.36236572265625E-4</v>
+        <f t="shared" ref="D513:D520" si="16">B514/L$5</f>
+        <v>6.256103515625E-4</v>
       </c>
       <c r="E514">
         <f t="shared" si="15"/>
-        <v>-7.6624137565889762E-3</v>
+        <v>-6.6580256318765048E-3</v>
       </c>
     </row>
     <row r="515" spans="1:5" x14ac:dyDescent="0.25">
@@ -17031,15 +17040,15 @@
         <v>1</v>
       </c>
       <c r="B515">
-        <v>2981</v>
+        <v>886</v>
       </c>
       <c r="D515">
         <f t="shared" si="16"/>
-        <v>1.1371612548828125E-2</v>
+        <v>3.37982177734375E-3</v>
       </c>
       <c r="E515">
-        <f t="shared" ref="E515:E521" si="17">IF(D515&lt;&gt;0,D515*LOG(D515,2),0)</f>
-        <v>-7.3442642412438683E-2</v>
+        <f t="shared" ref="E515:E522" si="17">IF(D515&lt;&gt;0,D515*LOG(D515,2),0)</f>
+        <v>-2.7744406435929313E-2</v>
       </c>
     </row>
     <row r="516" spans="1:5" x14ac:dyDescent="0.25">
@@ -17047,15 +17056,15 @@
         <v>2</v>
       </c>
       <c r="B516">
-        <v>9961</v>
+        <v>5254</v>
       </c>
       <c r="D516">
         <f t="shared" si="16"/>
-        <v>3.7998199462890625E-2</v>
+        <v>2.004241943359375E-2</v>
       </c>
       <c r="E516">
         <f t="shared" si="17"/>
-        <v>-0.17927266019452631</v>
+        <v>-0.1130552698177639</v>
       </c>
     </row>
     <row r="517" spans="1:5" x14ac:dyDescent="0.25">
@@ -17063,15 +17072,15 @@
         <v>3</v>
       </c>
       <c r="B517">
-        <v>36774</v>
+        <v>43489</v>
       </c>
       <c r="D517">
         <f t="shared" si="16"/>
-        <v>0.14028167724609375</v>
+        <v>0.16589736938476563</v>
       </c>
       <c r="E517">
         <f t="shared" si="17"/>
-        <v>-0.39750237244523889</v>
+        <v>-0.42994577481132079</v>
       </c>
     </row>
     <row r="518" spans="1:5" x14ac:dyDescent="0.25">
@@ -17079,15 +17088,15 @@
         <v>4</v>
       </c>
       <c r="B518">
-        <v>147636</v>
+        <v>162584</v>
       </c>
       <c r="D518">
         <f t="shared" si="16"/>
-        <v>0.5631866455078125</v>
+        <v>0.620208740234375</v>
       </c>
       <c r="E518">
         <f t="shared" si="17"/>
-        <v>-0.46649592950800278</v>
+        <v>-0.42743188579504371</v>
       </c>
     </row>
     <row r="519" spans="1:5" x14ac:dyDescent="0.25">
@@ -17095,15 +17104,15 @@
         <v>5</v>
       </c>
       <c r="B519">
-        <v>51037</v>
+        <v>43524</v>
       </c>
       <c r="D519">
         <f t="shared" si="16"/>
-        <v>0.19469070434570313</v>
+        <v>0.1660308837890625</v>
       </c>
       <c r="E519">
         <f t="shared" si="17"/>
-        <v>-0.45961493000198123</v>
+        <v>-0.43009909763407117</v>
       </c>
     </row>
     <row r="520" spans="1:5" x14ac:dyDescent="0.25">
@@ -17111,15 +17120,15 @@
         <v>6</v>
       </c>
       <c r="B520">
-        <v>11444</v>
+        <v>5473</v>
       </c>
       <c r="D520">
         <f t="shared" si="16"/>
-        <v>4.36553955078125E-2</v>
+        <v>2.0877838134765625E-2</v>
       </c>
       <c r="E520">
         <f t="shared" si="17"/>
-        <v>-0.19722181516683004</v>
+        <v>-0.116537667690931</v>
       </c>
     </row>
     <row r="521" spans="1:5" x14ac:dyDescent="0.25">
@@ -17127,15 +17136,15 @@
         <v>7</v>
       </c>
       <c r="B521">
-        <v>2074</v>
+        <v>740</v>
       </c>
       <c r="D521">
         <f>B521/L$5</f>
-        <v>7.91168212890625E-3</v>
+        <v>2.8228759765625E-3</v>
       </c>
       <c r="E521">
         <f t="shared" si="17"/>
-        <v>-5.5237780872884258E-2</v>
+        <v>-2.3905859829780312E-2</v>
       </c>
     </row>
     <row r="522" spans="1:5" x14ac:dyDescent="0.25">
@@ -17143,28 +17152,32 @@
         <v>8</v>
       </c>
       <c r="B522">
-        <v>44</v>
+        <v>30</v>
+      </c>
+      <c r="D522">
+        <f>B522/L$5</f>
+        <v>1.1444091796875E-4</v>
+      </c>
+      <c r="E522">
+        <f t="shared" si="17"/>
+        <v>-1.4983874593038347E-3</v>
       </c>
     </row>
     <row r="523" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>6</v>
       </c>
-      <c r="D523" t="e">
-        <f>B523/B513</f>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="524" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A524">
         <v>0</v>
       </c>
       <c r="B524">
-        <v>4349</v>
+        <v>1295</v>
       </c>
       <c r="D524">
-        <f t="shared" ref="D524:D531" si="18">B524/B514</f>
-        <v>22.533678756476682</v>
+        <f t="shared" ref="D524:D532" si="18">B524/B514</f>
+        <v>7.8963414634146343</v>
       </c>
     </row>
     <row r="525" spans="1:5" x14ac:dyDescent="0.25">
@@ -17172,11 +17185,11 @@
         <v>1</v>
       </c>
       <c r="B525">
-        <v>21861</v>
+        <v>6736</v>
       </c>
       <c r="D525">
         <f t="shared" si="18"/>
-        <v>7.3334451526333444</v>
+        <v>7.6027088036117378</v>
       </c>
     </row>
     <row r="526" spans="1:5" x14ac:dyDescent="0.25">
@@ -17184,11 +17197,11 @@
         <v>2</v>
       </c>
       <c r="B526">
-        <v>34058</v>
+        <v>26030</v>
       </c>
       <c r="D526">
         <f t="shared" si="18"/>
-        <v>3.4191346250376466</v>
+        <v>4.9543205177007996</v>
       </c>
     </row>
     <row r="527" spans="1:5" x14ac:dyDescent="0.25">
@@ -17196,11 +17209,11 @@
         <v>3</v>
       </c>
       <c r="B527">
-        <v>64290</v>
+        <v>106990</v>
       </c>
       <c r="D527">
         <f t="shared" si="18"/>
-        <v>1.7482460434002285</v>
+        <v>2.4601623399020442</v>
       </c>
     </row>
     <row r="528" spans="1:5" x14ac:dyDescent="0.25">
@@ -17208,11 +17221,11 @@
         <v>4</v>
       </c>
       <c r="B528">
-        <v>250867</v>
+        <v>342980</v>
       </c>
       <c r="D528">
         <f t="shared" si="18"/>
-        <v>1.6992264759272806</v>
+        <v>2.1095556758352605</v>
       </c>
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.25">
@@ -17220,11 +17233,11 @@
         <v>5</v>
       </c>
       <c r="B529">
-        <v>92194</v>
+        <v>107167</v>
       </c>
       <c r="D529">
         <f t="shared" si="18"/>
-        <v>1.8064149538570058</v>
+        <v>2.4622507122507122</v>
       </c>
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.25">
@@ -17232,11 +17245,11 @@
         <v>6</v>
       </c>
       <c r="B530">
-        <v>45379</v>
+        <v>27213</v>
       </c>
       <c r="D530">
         <f t="shared" si="18"/>
-        <v>3.9653093324012585</v>
+        <v>4.9722272976429744</v>
       </c>
     </row>
     <row r="531" spans="1:4" x14ac:dyDescent="0.25">
@@ -17244,11 +17257,11 @@
         <v>7</v>
       </c>
       <c r="B531">
-        <v>16020</v>
+        <v>5879</v>
       </c>
       <c r="D531">
         <f t="shared" si="18"/>
-        <v>7.7242044358727098</v>
+        <v>7.9445945945945944</v>
       </c>
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.25">
@@ -17256,7 +17269,11 @@
         <v>8</v>
       </c>
       <c r="B532">
-        <v>788</v>
+        <v>196</v>
+      </c>
+      <c r="D532">
+        <f t="shared" si="18"/>
+        <v>6.5333333333333332</v>
       </c>
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.25">
@@ -17269,7 +17286,7 @@
         <v>0</v>
       </c>
       <c r="B534">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.25">
@@ -17277,7 +17294,7 @@
         <v>1</v>
       </c>
       <c r="B535">
-        <v>55</v>
+        <v>14</v>
       </c>
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.25">
@@ -17285,7 +17302,7 @@
         <v>2</v>
       </c>
       <c r="B536">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="537" spans="1:4" x14ac:dyDescent="0.25">
@@ -17293,7 +17310,7 @@
         <v>3</v>
       </c>
       <c r="B537">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="538" spans="1:4" x14ac:dyDescent="0.25">
@@ -17301,7 +17318,7 @@
         <v>4</v>
       </c>
       <c r="B538">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.25">
@@ -17309,7 +17326,7 @@
         <v>5</v>
       </c>
       <c r="B539">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.25">
@@ -17317,7 +17334,7 @@
         <v>6</v>
       </c>
       <c r="B540">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.25">
@@ -17325,7 +17342,7 @@
         <v>7</v>
       </c>
       <c r="B541">
-        <v>39</v>
+        <v>14</v>
       </c>
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.25">
@@ -17333,7 +17350,7 @@
         <v>8</v>
       </c>
       <c r="B542">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="543" spans="1:4" x14ac:dyDescent="0.25">
@@ -17346,7 +17363,7 @@
         <v>0</v>
       </c>
       <c r="B544">
-        <v>1623028</v>
+        <v>1065831</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.25">
@@ -17354,7 +17371,7 @@
         <v>1</v>
       </c>
       <c r="B545">
-        <v>5686063</v>
+        <v>2254050</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.25">
@@ -17362,7 +17379,7 @@
         <v>2</v>
       </c>
       <c r="B546">
-        <v>3860692</v>
+        <v>3677208</v>
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.25">
@@ -17370,7 +17387,7 @@
         <v>3</v>
       </c>
       <c r="B547">
-        <v>1928549</v>
+        <v>3416709</v>
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.25">
@@ -17378,7 +17395,7 @@
         <v>4</v>
       </c>
       <c r="B548">
-        <v>623233</v>
+        <v>1027298</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.25">
@@ -17386,7 +17403,7 @@
         <v>5</v>
       </c>
       <c r="B549">
-        <v>2756486</v>
+        <v>3507236</v>
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.25">
@@ -17394,7 +17411,7 @@
         <v>6</v>
       </c>
       <c r="B550">
-        <v>5075475</v>
+        <v>3830035</v>
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.25">
@@ -17402,7 +17419,7 @@
         <v>7</v>
       </c>
       <c r="B551">
-        <v>4425195</v>
+        <v>1787975</v>
       </c>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.25">
@@ -17410,7 +17427,7 @@
         <v>8</v>
       </c>
       <c r="B552">
-        <v>201590</v>
+        <v>176498</v>
       </c>
     </row>
   </sheetData>
